--- a/2HL_Neurons_Network_Results_TTS.xlsx
+++ b/2HL_Neurons_Network_Results_TTS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,31 +506,31 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9521561203322452</v>
+        <v>0.9698355765527821</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8921067377294505</v>
+        <v>0.9644984431757918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8548589739366357</v>
+        <v>0.808449891438738</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5330361744179695</v>
+        <v>0.4236716759575895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8117594645388698</v>
+        <v>0.4690867803644276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4346808303716238</v>
+        <v>0.4929399339865627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4240364730358124</v>
+        <v>0.3214141726493835</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7527709603309631</v>
+        <v>0.3997763097286224</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3393529057502747</v>
+        <v>0.3982564806938171</v>
       </c>
     </row>
     <row r="3">
@@ -541,34 +541,34 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9821734154167981</v>
+        <v>0.9095625355520195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9795684282463694</v>
+        <v>0.9088893342034613</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8262751396149288</v>
+        <v>0.4235134380443132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3263654420030945</v>
+        <v>0.7363634581651268</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3543842876569546</v>
+        <v>0.7515533573601748</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4637666934728403</v>
+        <v>0.8699050456330369</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2454387843608856</v>
+        <v>0.6251075863838196</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2962744832038879</v>
+        <v>0.6388336420059204</v>
       </c>
       <c r="L3" t="n">
-        <v>0.343193382024765</v>
+        <v>0.7085952758789062</v>
       </c>
     </row>
     <row r="4">
@@ -579,34 +579,34 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9808096044028745</v>
+        <v>0.9661875266343067</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9776631092961762</v>
+        <v>0.9602695492145947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8730052997650408</v>
+        <v>0.8721104073946367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3374270417687185</v>
+        <v>0.4478988496060853</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3730384266480876</v>
+        <v>0.4986187662073014</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3886298918933039</v>
+        <v>0.3929308355405476</v>
       </c>
       <c r="J4" t="n">
-        <v>0.246435672044754</v>
+        <v>0.3561184406280518</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3151530921459198</v>
+        <v>0.4024994075298309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3091022074222565</v>
+        <v>0.2946502864360809</v>
       </c>
     </row>
     <row r="5">
@@ -617,34 +617,34 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8208844568529532</v>
+        <v>0.9661070290844544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8305171000436747</v>
+        <v>0.9532010122642085</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.269200346375524</v>
+        <v>0.8676982521459576</v>
       </c>
       <c r="G5" t="n">
-        <v>1.046999226501529</v>
+        <v>0.4479247654323152</v>
       </c>
       <c r="H5" t="n">
-        <v>1.030598926202802</v>
+        <v>0.5422484196015082</v>
       </c>
       <c r="I5" t="n">
-        <v>1.63749155814055</v>
+        <v>0.4256333960602679</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8594250679016113</v>
+        <v>0.336025059223175</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8601884245872498</v>
+        <v>0.4176231920719147</v>
       </c>
       <c r="L5" t="n">
-        <v>1.550682187080383</v>
+        <v>0.2973446547985077</v>
       </c>
     </row>
     <row r="6">
@@ -655,34 +655,34 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9685175249702197</v>
+        <v>0.9641307692385053</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9521201469757686</v>
+        <v>0.9572133528126645</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7682661688396859</v>
+        <v>0.8891603824469058</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4321044914977982</v>
+        <v>0.4611722542336139</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5520711903466247</v>
+        <v>0.5153956914851913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5213666918835035</v>
+        <v>0.384332635917483</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3230290114879608</v>
+        <v>0.3596290946006775</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4535936713218689</v>
+        <v>0.4388187825679779</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4143409729003906</v>
+        <v>0.2886303961277008</v>
       </c>
     </row>
     <row r="7">
@@ -693,34 +693,34 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9808095801702162</v>
+        <v>0.9752588083005829</v>
       </c>
       <c r="E7" t="n">
-        <v>0.989788116558013</v>
+        <v>0.9666895746610211</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8797914770360225</v>
+        <v>0.8973995196484497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3365805592380499</v>
+        <v>0.3826837323103148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2522646582222539</v>
+        <v>0.4568108573379867</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3852265013410579</v>
+        <v>0.350828166789222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.251036524772644</v>
+        <v>0.2896507084369659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1927696317434311</v>
+        <v>0.3837620913982391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2897561192512512</v>
+        <v>0.2561556100845337</v>
       </c>
     </row>
     <row r="8">
@@ -731,34 +731,34 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9669997946946375</v>
+        <v>0.9740235234317522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9703797306765346</v>
+        <v>0.9759496986665556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7970791596422415</v>
+        <v>0.8444644927711746</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4475435617757962</v>
+        <v>0.3922056262322288</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4298614669970202</v>
+        <v>0.3870353751180253</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4934223820434195</v>
+        <v>0.4465224576046133</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3549557328224182</v>
+        <v>0.2924290299415588</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3657262027263641</v>
+        <v>0.3147103190422058</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4251575171947479</v>
+        <v>0.3456055223941803</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9540986815760301</v>
+        <v>0.9559409136249521</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9323239308784915</v>
+        <v>0.9503579204535273</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8313112031317847</v>
+        <v>0.8132416311852571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5209804772107446</v>
+        <v>0.5129061020363016</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6547466269585011</v>
+        <v>0.5552772288372478</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4448445689197502</v>
+        <v>0.476328370161652</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4132640659809113</v>
+        <v>0.3866413533687592</v>
       </c>
       <c r="K9" t="n">
-        <v>0.536830723285675</v>
+        <v>0.4546576738357544</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3698479533195496</v>
+        <v>0.3666657209396362</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9619943965435408</v>
+        <v>0.9618771218848219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9757764506125383</v>
+        <v>0.9509106254117599</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8531031972391768</v>
+        <v>0.8804991925657973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4747251361595415</v>
+        <v>0.476369975239447</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3889573357250386</v>
+        <v>0.5474200393691712</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4330374783689273</v>
+        <v>0.379867945676817</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3911890685558319</v>
+        <v>0.3430745303630829</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2972364723682404</v>
+        <v>0.4198702871799469</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3453639149665833</v>
+        <v>0.3000944852828979</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9860338536246593</v>
+        <v>0.9766642986713255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9876202912800323</v>
+        <v>0.97340110739049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7932981340705282</v>
+        <v>0.8770222317488855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2893493105812093</v>
+        <v>0.3717321826869687</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2790562853916806</v>
+        <v>0.4082978608657201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5044734335502761</v>
+        <v>0.4091462916035878</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2113533616065979</v>
+        <v>0.2883003354072571</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2312805652618408</v>
+        <v>0.3432406485080719</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3922117948532104</v>
+        <v>0.3073989748954773</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9689125450572881</v>
+        <v>0.9547232527205749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9744552847812568</v>
+        <v>0.970521902646029</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8482041498155956</v>
+        <v>0.7944602302416887</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4291613391743079</v>
+        <v>0.5196570050622166</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3969474118172014</v>
+        <v>0.423808242401803</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4450147536864497</v>
+        <v>0.4955083892903112</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3519221842288971</v>
+        <v>0.4308495223522186</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3381844162940979</v>
+        <v>0.3588840961456299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3312051892280579</v>
+        <v>0.4089995920658112</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9700018035520579</v>
+        <v>0.9587169807051429</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9637510971298568</v>
+        <v>0.9504778473723404</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9069652029033985</v>
+        <v>0.762387907600257</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4221128040762563</v>
+        <v>0.4969072505393156</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4718668469615194</v>
+        <v>0.5508485577086166</v>
       </c>
       <c r="I13" t="n">
-        <v>0.339621657664308</v>
+        <v>0.5420518172170389</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3328245580196381</v>
+        <v>0.3818131387233734</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4148140549659729</v>
+        <v>0.4344402849674225</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2524611353874207</v>
+        <v>0.4295802116394043</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9841768144476821</v>
+        <v>0.973117653348311</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9910560323759504</v>
+        <v>0.9804789157517146</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8426496809443929</v>
+        <v>0.8559450212094678</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3065331629132343</v>
+        <v>0.3994940418854243</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2363056692378651</v>
+        <v>0.349712548402815</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4410917461375421</v>
+        <v>0.4351002751344492</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2291983067989349</v>
+        <v>0.2989345788955688</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1946209073066711</v>
+        <v>0.2770683467388153</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3299469649791718</v>
+        <v>0.3484543859958649</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9822411430095653</v>
+        <v>0.9838388859274469</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9803504142808619</v>
+        <v>0.9949534382161597</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7000293578524175</v>
+        <v>0.8876075962156433</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3288170011582459</v>
+        <v>0.3106510539420887</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3518123586535445</v>
+        <v>0.1780900958647377</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5936269381634673</v>
+        <v>0.3647061572495724</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2451139539480209</v>
+        <v>0.2388588786125183</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2741218209266663</v>
+        <v>0.1457104831933975</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4676696360111237</v>
+        <v>0.2896682620048523</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9730605738028039</v>
+        <v>0.9718634940731036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778768623145671</v>
+        <v>0.9781073813022321</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7851222605032434</v>
+        <v>0.8660402980653599</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4013595765963118</v>
+        <v>0.408298900994983</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3719502453050549</v>
+        <v>0.3693537021441611</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5261163627040599</v>
+        <v>0.4002384734069564</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3106070160865784</v>
+        <v>0.315630316734314</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2944034337997437</v>
+        <v>0.2809449136257172</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4092374742031097</v>
+        <v>0.3401288390159607</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.978802236953354</v>
+        <v>0.963142010389877</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9922799844640657</v>
+        <v>0.9701569356047102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8483174381816011</v>
+        <v>0.877605480405536</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3550625670731288</v>
+        <v>0.4674270398535071</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2173167345052986</v>
+        <v>0.4312705270055955</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4391532383349074</v>
+        <v>0.3885460271241223</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2912592887878418</v>
+        <v>0.3829898834228516</v>
       </c>
       <c r="K17" t="n">
-        <v>0.179640918970108</v>
+        <v>0.3398900032043457</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3268424272537231</v>
+        <v>0.2971401214599609</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9665950898167005</v>
+        <v>0.967443218660919</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9702420524472484</v>
+        <v>0.9740279982602665</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8580581062152441</v>
+        <v>0.902462337696553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4452236321099201</v>
+        <v>0.4389453582342697</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4279547868103255</v>
+        <v>0.4029662307536262</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4431394628201054</v>
+        <v>0.3421909131790012</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3471039533615112</v>
+        <v>0.3242700695991516</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3591982126235962</v>
+        <v>0.33543860912323</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3163736760616302</v>
+        <v>0.2582732737064362</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
         <v>40</v>
       </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
       <c r="D19" t="n">
-        <v>0.9697307519749236</v>
+        <v>0.8886137941627089</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9637219647368649</v>
+        <v>0.8633129265549561</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8789283585436334</v>
+        <v>0.7585450917370127</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4237720434818786</v>
+        <v>0.8132560586829699</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4768016246525956</v>
+        <v>0.9226545819970799</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3826133638261974</v>
+        <v>0.5378621046030655</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3236483335494995</v>
+        <v>0.6477026343345642</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3633796274662018</v>
+        <v>0.7789252400398254</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2916201055049896</v>
+        <v>0.4057613909244537</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9688037331754339</v>
+        <v>0.9621778617399701</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9790235265599641</v>
+        <v>0.9532891488453376</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7281519366762469</v>
+        <v>0.7819595930988167</v>
       </c>
       <c r="G20" t="n">
-        <v>0.432909382467269</v>
+        <v>0.4751318735971816</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3635265178675752</v>
+        <v>0.5395917367710391</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5987729379962849</v>
+        <v>0.5338338398358843</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3416699171066284</v>
+        <v>0.3795030117034912</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2934119403362274</v>
+        <v>0.46109738945961</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4538713395595551</v>
+        <v>0.4224168360233307</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9753829892403278</v>
+        <v>0.9373693110973683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9745323474680141</v>
+        <v>0.9460806562614241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8701799135508566</v>
+        <v>0.7537966072328477</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3832377193596</v>
+        <v>0.6124327067952481</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3984918183344774</v>
+        <v>0.5765865320919245</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4098310907396131</v>
+        <v>0.5638430245021699</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2938483059406281</v>
+        <v>0.4620968699455261</v>
       </c>
       <c r="K21" t="n">
-        <v>0.318752259016037</v>
+        <v>0.4491260051727295</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3275216817855835</v>
+        <v>0.4307181239128113</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9598568445366105</v>
+        <v>0.9587707773046298</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9747227231418474</v>
+        <v>0.9752928413868206</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8883734881093117</v>
+        <v>0.7124943043112333</v>
       </c>
       <c r="G22" t="n">
-        <v>0.488973173082345</v>
+        <v>0.4977067721126698</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3990216554367595</v>
+        <v>0.3904721151621361</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3658138309195804</v>
+        <v>0.6148847767424286</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4000720381736755</v>
+        <v>0.4181183576583862</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3291304707527161</v>
+        <v>0.3267177939414978</v>
       </c>
       <c r="L22" t="n">
-        <v>0.292356938123703</v>
+        <v>0.5338730812072754</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9676752261225554</v>
+        <v>0.9777394142911147</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9635115711428582</v>
+        <v>0.9821310162174979</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7427286192944162</v>
+        <v>0.8363214035468114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4400815412435153</v>
+        <v>0.3641113723237158</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4767890923040052</v>
+        <v>0.3319311215386351</v>
       </c>
       <c r="I23" t="n">
-        <v>0.558039196548496</v>
+        <v>0.437589261622104</v>
       </c>
       <c r="J23" t="n">
-        <v>0.351104199886322</v>
+        <v>0.2764011323451996</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4161233603954315</v>
+        <v>0.2733029425144196</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4479464292526245</v>
+        <v>0.3669334352016449</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9720031133213741</v>
+        <v>0.9421629271866538</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9664830480859737</v>
+        <v>0.9678367247068924</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8470242882438498</v>
+        <v>0.7392374853004555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4070027053986782</v>
+        <v>0.5905548760500029</v>
       </c>
       <c r="H24" t="n">
-        <v>0.459167849616496</v>
+        <v>0.4438039424507959</v>
       </c>
       <c r="I24" t="n">
-        <v>0.428875259502736</v>
+        <v>0.5703519520112607</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3059507012367249</v>
+        <v>0.4935345351696014</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3674314022064209</v>
+        <v>0.3586123883724213</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3255207538604736</v>
+        <v>0.5178272724151611</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9566814514935705</v>
+        <v>0.976778395403745</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9560820368009481</v>
+        <v>0.9837520522514431</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7984341630222016</v>
+        <v>0.8930351319311673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5075927552364526</v>
+        <v>0.3712559997831582</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5223109234928387</v>
+        <v>0.3166363550515212</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5184841646849817</v>
+        <v>0.3582641391519535</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3819723725318909</v>
+        <v>0.2869951725006104</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3963660001754761</v>
+        <v>0.2606666386127472</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4025572240352631</v>
+        <v>0.2876891493797302</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9781261859818037</v>
+        <v>0.9464368207217206</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9831674117400875</v>
+        <v>0.9265399042340589</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7377628943972407</v>
+        <v>0.8355408200449828</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3634016391252681</v>
+        <v>0.5635782609529216</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3209623861646712</v>
+        <v>0.6752686072069932</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5768944815738237</v>
+        <v>0.454093572074567</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2797055542469025</v>
+        <v>0.4078908860683441</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2549883723258972</v>
+        <v>0.4766199588775635</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4463132619857788</v>
+        <v>0.3541881740093231</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>0.913834854866888</v>
+        <v>0.96984749585826</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9369540929224551</v>
+        <v>0.9718223417383487</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6649323490306753</v>
+        <v>0.8891265126970321</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7180231399606076</v>
+        <v>0.4226989118159997</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6229704089461972</v>
+        <v>0.417272594074446</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6516472301690348</v>
+        <v>0.3571407692711973</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6230632662773132</v>
+        <v>0.3265829384326935</v>
       </c>
       <c r="K27" t="n">
-        <v>0.539702296257019</v>
+        <v>0.3478792905807495</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5440855622291565</v>
+        <v>0.2764884233474731</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.974294578225801</v>
+        <v>0.9649018010962329</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9832793277356349</v>
+        <v>0.961691181182142</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8341308367224228</v>
+        <v>0.873720277977807</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3931900114392484</v>
+        <v>0.4569505147456676</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3205968827193935</v>
+        <v>0.4845501213987201</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4550516996774638</v>
+        <v>0.3808963464251751</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3162254989147186</v>
+        <v>0.3481312990188599</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2621198296546936</v>
+        <v>0.3933562934398651</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3662393689155579</v>
+        <v>0.3026296198368073</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9803789397282748</v>
+        <v>0.9605377715163773</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9852726021725422</v>
+        <v>0.9612076686859697</v>
       </c>
       <c r="F29" t="n">
-        <v>0.792414847817237</v>
+        <v>0.8477373525765626</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3428352278527405</v>
+        <v>0.484314914791375</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3082367485861149</v>
+        <v>0.4888689090639009</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4996028902708201</v>
+        <v>0.422970409298458</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2652459144592285</v>
+        <v>0.366960346698761</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2420795112848282</v>
+        <v>0.4297720193862915</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4005778133869171</v>
+        <v>0.3236422836780548</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9817830180853645</v>
+        <v>0.9752642658176902</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9815090282044908</v>
+        <v>0.978013612973146</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8310465576977606</v>
+        <v>0.897766788857271</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3301202307034859</v>
+        <v>0.3831311087253574</v>
       </c>
       <c r="H30" t="n">
-        <v>0.339590515409865</v>
+        <v>0.371156948129091</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4588509385958455</v>
+        <v>0.3526629708342224</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2437473088502884</v>
+        <v>0.2953336536884308</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2783761024475098</v>
+        <v>0.2980897426605225</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3397441506385803</v>
+        <v>0.2790428698062897</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9795933194340557</v>
+        <v>0.946300653475217</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9768194244831854</v>
+        <v>0.9384225803624943</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8353791181236409</v>
+        <v>0.8155871687409089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3496696484145105</v>
+        <v>0.5642208690703876</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3796610442312655</v>
+        <v>0.6166628043809859</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4424664247835508</v>
+        <v>0.4664373409828632</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2594940066337585</v>
+        <v>0.4335614442825317</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2958082258701324</v>
+        <v>0.4950686991214752</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3370450437068939</v>
+        <v>0.3821057677268982</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9581005933383306</v>
+        <v>0.9188946293901056</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9523993081526203</v>
+        <v>0.8926623219165004</v>
       </c>
       <c r="F32" t="n">
-        <v>0.803980924933888</v>
+        <v>0.6107535526859349</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4996570215478721</v>
+        <v>0.6969331221013247</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5465297153906571</v>
+        <v>0.8170861146663292</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4874001143902663</v>
+        <v>0.6813892895801519</v>
       </c>
       <c r="J32" t="n">
-        <v>0.404271274805069</v>
+        <v>0.5730749368667603</v>
       </c>
       <c r="K32" t="n">
-        <v>0.447450578212738</v>
+        <v>0.7020386457443237</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3949232995510101</v>
+        <v>0.6016502380371094</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9836998738146381</v>
+        <v>0.984655471367334</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9878208631465877</v>
+        <v>0.9827761382421757</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7396558760814982</v>
+        <v>0.9140237650735595</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3150562520549374</v>
+        <v>0.3026954256658851</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2752282360517302</v>
+        <v>0.3275064701249275</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5689885173805524</v>
+        <v>0.3226867813739241</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2413069754838943</v>
+        <v>0.218745231628418</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2407741248607635</v>
+        <v>0.2738153338432312</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4303822219371796</v>
+        <v>0.2496907860040665</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9783241507580006</v>
+        <v>0.9761526979012614</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9793727986354873</v>
+        <v>0.9844208864065205</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8759195107909888</v>
+        <v>0.8381460517172519</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3587650637836785</v>
+        <v>0.3782196312706319</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3611925644078079</v>
+        <v>0.3107601848691748</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3850010379244698</v>
+        <v>0.4359706647282777</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2777348160743713</v>
+        <v>0.2828572690486908</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2886528670787811</v>
+        <v>0.2322651743888855</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2973742783069611</v>
+        <v>0.3220381736755371</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9655170145826655</v>
+        <v>0.9452115309868283</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9637177974157635</v>
+        <v>0.9574841940571271</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7855319733841301</v>
+        <v>0.7632600697828308</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4522912807044174</v>
+        <v>0.5737279753935183</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4742833183109256</v>
+        <v>0.513750396644829</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5177276395374283</v>
+        <v>0.5618696389457041</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3652559518814087</v>
+        <v>0.4598684012889862</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4126589000225067</v>
+        <v>0.4414008557796478</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4171691834926605</v>
+        <v>0.4369910359382629</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" t="n">
         <v>60</v>
       </c>
-      <c r="C36" t="n">
-        <v>80</v>
-      </c>
       <c r="D36" t="n">
-        <v>0.7971105484848804</v>
+        <v>0.9794608203464367</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8433894084713258</v>
+        <v>0.9921940174197599</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1651306563201732</v>
+        <v>0.8616711938898217</v>
       </c>
       <c r="G36" t="n">
-        <v>1.106699551549517</v>
+        <v>0.3513939453420009</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9799728051129717</v>
+        <v>0.2185594290593136</v>
       </c>
       <c r="I36" t="n">
-        <v>1.012001557756062</v>
+        <v>0.4091324517200521</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9117648601531982</v>
+        <v>0.2797840237617493</v>
       </c>
       <c r="K36" t="n">
-        <v>0.839627742767334</v>
+        <v>0.1743266880512238</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8508865833282471</v>
+        <v>0.3666950166225433</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9749682654981274</v>
+        <v>0.9621486817572293</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9751657166743195</v>
+        <v>0.9743854388417696</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7245247983889322</v>
+        <v>0.773915056342024</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3877697544070935</v>
+        <v>0.475938732724212</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3901482533837332</v>
+        <v>0.3972654119470376</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5787980054385994</v>
+        <v>0.5483859578662335</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2955963909626007</v>
+        <v>0.3847488164901733</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2897594273090363</v>
+        <v>0.2841149270534515</v>
       </c>
       <c r="L37" t="n">
-        <v>0.46016526222229</v>
+        <v>0.4481866359710693</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" t="n">
         <v>70</v>
       </c>
-      <c r="C38" t="n">
-        <v>30</v>
-      </c>
       <c r="D38" t="n">
-        <v>0.9493011551122016</v>
+        <v>0.9733631815940018</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9622940611825667</v>
+        <v>0.9738868061374413</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7036593904625958</v>
+        <v>0.8737776653501421</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5477393268257446</v>
+        <v>0.3986974317106275</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4817223670568786</v>
+        <v>0.403962646767597</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6450139174697159</v>
+        <v>0.4025430648582528</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4490142464637756</v>
+        <v>0.3114549517631531</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4009650647640228</v>
+        <v>0.3190534710884094</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4792097508907318</v>
+        <v>0.3084920644760132</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>0.97743388249106</v>
+        <v>0.917309965755974</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9885389607754164</v>
+        <v>0.9419338356156237</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8920209722409393</v>
+        <v>0.6803272090672028</v>
       </c>
       <c r="G39" t="n">
-        <v>0.365427567900439</v>
+        <v>0.702751844781648</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2656658786284758</v>
+        <v>0.6000915229055593</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3745425135797099</v>
+        <v>0.6185008452879204</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2778932154178619</v>
+        <v>0.5900754332542419</v>
       </c>
       <c r="K39" t="n">
-        <v>0.208016648888588</v>
+        <v>0.4660444259643555</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2951281368732452</v>
+        <v>0.5518091917037964</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9681139490800591</v>
+        <v>0.9713008766342422</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9617477679447678</v>
+        <v>0.9714906805780849</v>
       </c>
       <c r="F40" t="n">
-        <v>0.777077590084871</v>
+        <v>0.8549292886630676</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4357564789579811</v>
+        <v>0.4135833883338649</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4913886111054834</v>
+        <v>0.4214453275197735</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5096721344203985</v>
+        <v>0.4305622040925745</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3462112545967102</v>
+        <v>0.3216519355773926</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3989106416702271</v>
+        <v>0.3284737169742584</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4086411893367767</v>
+        <v>0.3231166303157806</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9803868161900646</v>
+        <v>0.9226690770209756</v>
       </c>
       <c r="E41" t="n">
-        <v>0.985865633899966</v>
+        <v>0.8654721930020612</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7845457792390892</v>
+        <v>0.700002770892109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3446236908091852</v>
+        <v>0.6781952140424934</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2968106953093526</v>
+        <v>0.9176694990955689</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5094042845657032</v>
+        <v>0.6192142912063798</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2621879577636719</v>
+        <v>0.5518321990966797</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2372718453407288</v>
+        <v>0.8162298798561096</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3922120630741119</v>
+        <v>0.4758764505386353</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9601983320066128</v>
+        <v>0.9710530594595814</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9749433580952348</v>
+        <v>0.9688046663690212</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8235985264463471</v>
+        <v>0.7892257992699768</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4882381114977276</v>
+        <v>0.4167344236912731</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3927212164947018</v>
+        <v>0.4435339932504365</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4679485781593704</v>
+        <v>0.5181659167875203</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4058014750480652</v>
+        <v>0.3263511657714844</v>
       </c>
       <c r="K42" t="n">
-        <v>0.322794109582901</v>
+        <v>0.3552190959453583</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3978076577186584</v>
+        <v>0.389131486415863</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C43" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9679462390517216</v>
+        <v>0.9764043221417015</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9542443032375062</v>
+        <v>0.9697514734332128</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7615034920958852</v>
+        <v>0.8849483246268128</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4377990109573213</v>
+        <v>0.3745336016412844</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5374728828065898</v>
+        <v>0.4351744149763894</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5471337659890502</v>
+        <v>0.3669987457160409</v>
       </c>
       <c r="J43" t="n">
-        <v>0.344914436340332</v>
+        <v>0.2763602137565613</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4654251933097839</v>
+        <v>0.3423968851566315</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3966434597969055</v>
+        <v>0.2756498754024506</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>0.958063463402115</v>
+        <v>0.9703973907081952</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9611822220555487</v>
+        <v>0.9864796293154092</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8507226533246059</v>
+        <v>0.8465037647049174</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4982195237050895</v>
+        <v>0.4210128274705383</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4889944132737317</v>
+        <v>0.2885192069919252</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4474045483588187</v>
+        <v>0.4428313720116751</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4084829092025757</v>
+        <v>0.32968670129776</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4208681583404541</v>
+        <v>0.2152645289897919</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3267609179019928</v>
+        <v>0.3372275233268738</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9653132031316501</v>
+        <v>0.9630947743910507</v>
       </c>
       <c r="E45" t="n">
-        <v>0.96830212843555</v>
+        <v>0.9820502488263142</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6636058888374307</v>
+        <v>0.844084010535306</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4571254665715562</v>
+        <v>0.4694317945616883</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4452308278729841</v>
+        <v>0.3331301735624762</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6304464494620802</v>
+        <v>0.44624668980287</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3648576438426971</v>
+        <v>0.3844408988952637</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3744344413280487</v>
+        <v>0.252735823392868</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5126944780349731</v>
+        <v>0.3652085661888123</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9637958113384663</v>
+        <v>0.9778163450954667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9734585298798503</v>
+        <v>0.9769864533139845</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8581635759568542</v>
+        <v>0.8794618511979811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4627314748677988</v>
+        <v>0.3642875720592486</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4059323940000025</v>
+        <v>0.3769813685138984</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4125235948172385</v>
+        <v>0.3738808223050373</v>
       </c>
       <c r="J46" t="n">
-        <v>0.343834787607193</v>
+        <v>0.2821100354194641</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2822335660457611</v>
+        <v>0.3192067742347717</v>
       </c>
       <c r="L46" t="n">
-        <v>0.323895275592804</v>
+        <v>0.2771470546722412</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C47" t="n">
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>0.956488854061441</v>
+        <v>0.9734932701257321</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9715241771245903</v>
+        <v>0.9690657700402249</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8075788530783795</v>
+        <v>0.9182051129845145</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5115665471517508</v>
+        <v>0.396255257839374</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4202319929598293</v>
+        <v>0.4397330007482491</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4779317134787734</v>
+        <v>0.3132316726116636</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4059784114360809</v>
+        <v>0.2900672852993011</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3457159101963043</v>
+        <v>0.3183724582195282</v>
       </c>
       <c r="L47" t="n">
-        <v>0.39035964012146</v>
+        <v>0.2293351143598557</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9719811046746011</v>
+        <v>0.9661212121549823</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9852573523063902</v>
+        <v>0.9757021742773425</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8327909018884725</v>
+        <v>0.8817302000626781</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4093691949214371</v>
+        <v>0.4482170712949489</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3040532577850752</v>
+        <v>0.3890117903297977</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4418346216888571</v>
+        <v>0.3934611926470608</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3389453887939453</v>
+        <v>0.3439725339412689</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2542449235916138</v>
+        <v>0.3146701455116272</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3650410175323486</v>
+        <v>0.3068520724773407</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C49" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9744496218197148</v>
+        <v>0.964118052422134</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9738688454794198</v>
+        <v>0.9527183403277489</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8734683121904308</v>
+        <v>0.9021813295478651</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3891741703434573</v>
+        <v>0.4614522936435067</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4020107520845718</v>
+        <v>0.5382372856179931</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4046841669129489</v>
+        <v>0.3352064117382885</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3008458614349365</v>
+        <v>0.3394962549209595</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3393103778362274</v>
+        <v>0.4252302348613739</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2968203127384186</v>
+        <v>0.2514246106147766</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,4597 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
+        <v>35</v>
+      </c>
+      <c r="C50" t="n">
+        <v>65</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9837335496464992</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9917806177402714</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8707790522343162</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3111618718084505</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.227758530959994</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3909798345658506</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2287127673625946</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.1858972311019897</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.3023751974105835</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>35</v>
+      </c>
+      <c r="C51" t="n">
+        <v>70</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9775084555353446</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9889829388767667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.823187059780319</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3672117265866049</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.2631994182521542</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4714838889181923</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.2923475503921509</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.2087362259626389</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.4268163442611694</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>35</v>
+      </c>
+      <c r="C52" t="n">
+        <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9663714417108521</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.973795880317054</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8408603493368667</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.4459678612567139</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4034428260327558</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4623016441125781</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3536362051963806</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3245428502559662</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3439186811447144</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>35</v>
+      </c>
+      <c r="C53" t="n">
         <v>80</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D53" t="n">
+        <v>0.9657105761386889</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9791075628485729</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8066873008868676</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.4510472938973589</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.3560518784655461</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4735463014228442</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3721944689750671</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2806324362754822</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3864537477493286</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9802488510129194</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9783522057618139</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8984749021017425</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.3432728533614282</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.370126225907171</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3496339139371428</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2642271220684052</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3072729408740997</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.2622582018375397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9659614965465991</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9525003313550258</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8635923060335167</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.4490045617356117</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.5462377377493338</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4091113267846246</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3322003185749054</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.4487791061401367</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3066638708114624</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>40</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.977182974249579</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9729854556172148</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8348173310455873</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3715018588182608</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.4130108090884324</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4437222781051482</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2750023305416107</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3474108874797821</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3303785026073456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>40</v>
+      </c>
+      <c r="C57" t="n">
+        <v>35</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9236292928546562</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9163023223979057</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8313718933665939</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6733048770890508</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.7202305265109268</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.4400535042700272</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5250126719474792</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.6096085906028748</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3447805643081665</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+      <c r="C58" t="n">
+        <v>40</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.984882151607964</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9887751181981512</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9077134812945491</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.2988937904165964</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2626698846812523</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.3364187718783763</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.22154800593853</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2208023071289062</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.2560287415981293</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>40</v>
+      </c>
+      <c r="C59" t="n">
+        <v>45</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9484748777219346</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9637540519227746</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6270836836388849</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5580725739430989</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.4720183394786924</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.6926356232039637</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4537831544876099</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3483441472053528</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.5884853005409241</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9861660406062618</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9892149185964874</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8901022052460438</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.2868809342653592</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.2607315432772576</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3649305824346721</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2052858769893646</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1920805275440216</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.2755779623985291</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>40</v>
+      </c>
+      <c r="C61" t="n">
+        <v>55</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9768466258636991</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9875050219781717</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8585548360719326</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3717314410999609</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2796109973980844</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.4170341738573</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2786552309989929</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2159232497215271</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3445066511631012</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9699841264674502</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9585346254075028</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8164087314017028</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.4234233452658689</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5083431405804651</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.4603901862675291</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3375877439975739</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.4497841596603394</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.362090528011322</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>40</v>
+      </c>
+      <c r="C63" t="n">
+        <v>65</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9672112323886742</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9676920900322794</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8008279921328859</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.442393490155096</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.4474255138613595</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.4946241162022043</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.356712132692337</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3924766778945923</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.4062459468841553</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>40</v>
+      </c>
+      <c r="C64" t="n">
+        <v>70</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9766687855849524</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9828189972884797</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9163138606144178</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3714577746569843</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3280068934278842</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.3212602016855234</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.283139169216156</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2551625967025757</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.2491945177316666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40</v>
+      </c>
+      <c r="C65" t="n">
+        <v>75</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.972263749656226</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9880076456023327</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8023511706021306</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.4092010638131813</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.2732359143096692</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.4961580400035188</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.3359346389770508</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2407079488039017</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.4166770577430725</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>40</v>
+      </c>
+      <c r="C66" t="n">
         <v>80</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.9810362475041013</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9824455187671551</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.8678255321362418</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.336358184002871</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.3317420036190177</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.3952455946503677</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2531588971614838</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2710039615631104</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.3119187653064728</v>
+      <c r="D66" t="n">
+        <v>0.9405172424548979</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9425887556176042</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8119072728600387</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.593608914729099</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5984860064417045</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.4714142267590997</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.4738042056560516</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4823512434959412</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.3676084578037262</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>45</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9550833527962777</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9333848251706278</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8866927394346772</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.5161102496936008</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.6456886765282206</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3970496559305385</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.406887412071228</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.541986346244812</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.2891501188278198</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>45</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9820637727184484</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9870223980100871</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.884199826829914</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.3271218474101013</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.2859638222841038</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3709168865964831</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2482263445854187</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.227068692445755</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.2774282395839691</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>45</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9748704181192419</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9774337352034337</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.8821560341741022</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3882917913161131</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.3749491140490701</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3811171417439613</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.287575900554657</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2993941009044647</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.298118382692337</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>45</v>
+      </c>
+      <c r="C70" t="n">
+        <v>35</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9604877898899774</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9468716762878147</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.8670165698069604</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.4838325477864854</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.5776972090068168</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.4001131724653618</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.3479803800582886</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.4329633712768555</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.3048129975795746</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>45</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9097688516219499</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9033825778785256</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6798235819893548</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.7301596329176168</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.7762294815103655</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6168343463167195</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5860239863395691</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.6608495712280273</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.4765040576457977</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>45</v>
+      </c>
+      <c r="C72" t="n">
+        <v>45</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9696746534454811</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9815647028297876</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.8010407503001934</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.4284002094748686</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.3410908955704923</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.4925707581322381</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3432766497135162</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2657311260700226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.4302885234355927</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>45</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9738965672992494</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9690016036848991</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8822101793407229</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.3934480697811849</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.4419913507269045</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3964679507908013</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.306854248046875</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3654024004936218</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.2832541167736053</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>45</v>
+      </c>
+      <c r="C74" t="n">
+        <v>55</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9727761289840821</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9759134275710947</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.8898595838893338</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.4020844892705928</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.3868596176824005</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3657187040189277</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3116960525512695</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.3069464862346649</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.2889924943447113</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>45</v>
+      </c>
+      <c r="C75" t="n">
+        <v>60</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9819340606605471</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9826545943100587</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9173928092082713</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3270408909083307</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3296890109601583</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3149131939693919</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.2439365237951279</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.2734101116657257</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.2272087186574936</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>45</v>
+      </c>
+      <c r="C76" t="n">
+        <v>65</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9785016310879868</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9895541403245255</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.8985587965068306</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.3565850597937691</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2562617130626395</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3604753689929193</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.2767852246761322</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.208212673664093</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.2754395008087158</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>45</v>
+      </c>
+      <c r="C77" t="n">
+        <v>70</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9715746355622159</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.970229391813185</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8585934933134611</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.4123594600955942</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.4310958151302945</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.4296414437320021</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3163723349571228</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.3463962078094482</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.3584944605827332</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45</v>
+      </c>
+      <c r="C78" t="n">
+        <v>75</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9705201111852803</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9755911721620121</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8133899869518795</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.420950618615938</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.3885874249135666</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.4839093831410163</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.3274538218975067</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2959509193897247</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.4016234874725342</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>45</v>
+      </c>
+      <c r="C79" t="n">
+        <v>80</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9801879581102969</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9831617198290504</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8563206847119447</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.3454724743908453</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3236420799866889</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.4250754885389319</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.268419474363327</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.2711858153343201</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.3083169460296631</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>50</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9601801419108599</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9451585330988052</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8855698870638389</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4857351525767054</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.5795919262431654</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.3715599344227528</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.3748763203620911</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.4669533967971802</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.2872155904769897</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>50</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9349855871226989</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.932098868425798</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8249802483638742</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6200002004253925</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.6478838797815794</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.4536597943557403</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5086309313774109</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.5326193571090698</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.3636194467544556</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>50</v>
+      </c>
+      <c r="C82" t="n">
+        <v>30</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9739928615765446</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9726592756120748</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9020843866766025</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.3921758384034676</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.4076586473306016</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.342042921606903</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2927256524562836</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.3031085133552551</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.2512482702732086</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50</v>
+      </c>
+      <c r="C83" t="n">
+        <v>35</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9680447801700829</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9530779004367443</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.871153213517698</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4352235492050827</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.5408757163145093</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.4127105016842371</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3259095847606659</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4590091705322266</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.2962241470813751</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>50</v>
+      </c>
+      <c r="C84" t="n">
+        <v>40</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9656751341863368</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9515646529685353</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.8422504273843687</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.4531463585127776</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.5519882666111338</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.4367824187297568</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3522669970989227</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.4520509541034698</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.3400898873806</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>50</v>
+      </c>
+      <c r="C85" t="n">
+        <v>45</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9676904811377226</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9569441625976864</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8589059133027845</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4389863650739687</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.5155591344669188</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.4141471704247516</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3492207527160645</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.4129327535629272</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.3215040266513824</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>50</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9625024782814361</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9707773489900509</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.804502845018334</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.4727932439842594</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.4267294588424923</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.5066355049856942</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3487436771392822</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.3256370723247528</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.4260036647319794</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>50</v>
+      </c>
+      <c r="C87" t="n">
+        <v>55</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9642073904674129</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9535602603940878</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8991967798585161</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.4600659876119753</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.5392938200504759</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.3491809606907651</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.3542037606239319</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.390271008014679</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2599160075187683</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>50</v>
+      </c>
+      <c r="C88" t="n">
+        <v>60</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9665399980640585</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9725192648842861</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7994407864674061</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.4479774574309032</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.4131914729947368</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.5202515277134372</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.3787307739257812</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.3450145423412323</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.436883419752121</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>50</v>
+      </c>
+      <c r="C89" t="n">
+        <v>65</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9719813221667408</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.969740891535966</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8581335451004477</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4100508963291013</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.4339923744597484</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.4108105118792068</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.325590193271637</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.376909613609314</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.3106365501880646</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" t="n">
+        <v>70</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9824793713633635</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9910252264059949</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9075533743679556</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.3223909192283366</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.2381482222014575</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.32881316047853</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.2459135353565216</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1927463263273239</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.2645701169967651</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>50</v>
+      </c>
+      <c r="C91" t="n">
+        <v>75</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9717130177996227</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9847879081724855</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.825963169734153</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.413497935784664</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.3072072400748342</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.4525705760376935</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.3219515383243561</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.2267203330993652</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.4018899500370026</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>50</v>
+      </c>
+      <c r="C92" t="n">
+        <v>80</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9442542433625406</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9651029669590828</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5926822514796288</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.5771017814148011</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.4646411903204216</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.709881049991385</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4761722385883331</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.3833817839622498</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.6044879555702209</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>55</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9844756200168191</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9804131612337992</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8888500371429224</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.304167095221039</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3482310333433946</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.3589109243936351</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.2126544713973999</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2939232587814331</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.2649726867675781</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>55</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9630372488371585</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9480368387406736</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8811204445362062</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.4681384229581825</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.568291492930986</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.3790439473492014</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.351790577173233</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4409276247024536</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.3067802786827087</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>55</v>
+      </c>
+      <c r="C95" t="n">
+        <v>30</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9769453495931314</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9863478158902313</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.8591350627126484</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.3706920457315872</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.2931257208874262</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.4101234059580409</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.2714436650276184</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.2162763476371765</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.3486852645874023</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>55</v>
+      </c>
+      <c r="C96" t="n">
+        <v>35</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9655634081532535</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9852110390503306</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7779218132105051</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.4552212273221365</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.302961338241754</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5286475840822993</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.3900019526481628</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2531599700450897</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.4626997411251068</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>55</v>
+      </c>
+      <c r="C97" t="n">
+        <v>40</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9577514660874377</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9458015562885682</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.8272913762706027</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.503076180168625</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5823503681909133</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.4583239247338964</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.3995544612407684</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.4946480393409729</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.3391118049621582</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>55</v>
+      </c>
+      <c r="C98" t="n">
+        <v>45</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9702311911025234</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.9800209925920683</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.8512999239348155</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.4220510751134571</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.3508332318062685</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.4357094910176926</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.3353052735328674</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2855282425880432</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.3473019301891327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9666763144328189</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.9500652245819312</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.86649521975892</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.4443854503502667</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.5563925474729767</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.4065844919412728</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.3425222635269165</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.4974856674671173</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.3028416335582733</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>55</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9733291539129119</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.9716360586711035</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.8016258258028197</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.4005655976352921</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.4196552228410118</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.4935496418690882</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.3037422895431519</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.3447035253047943</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.4411415159702301</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>55</v>
+      </c>
+      <c r="C101" t="n">
+        <v>60</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9493620192942916</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9443413730939484</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.8881549387541929</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.5478062194446783</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5884026107128529</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.3610341706390176</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.4138717353343964</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4748063981533051</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.2857419550418854</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>55</v>
+      </c>
+      <c r="C102" t="n">
+        <v>65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9702960264447985</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9696857295340549</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.8827981273034882</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.4206422880454498</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4352706923060602</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.3693131341455876</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3304343223571777</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.3579915165901184</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.2782310545444489</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>55</v>
+      </c>
+      <c r="C103" t="n">
+        <v>70</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9710166869632828</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9616411573805528</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8708064644175395</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.4165587841878401</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.4906432130190832</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3937828784415809</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.3121708333492279</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.3965926766395569</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.3065049648284912</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>55</v>
+      </c>
+      <c r="C104" t="n">
+        <v>75</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9673772117067025</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.9819144927718233</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.8321439838237831</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.4414543024424854</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.3348034302097382</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.454321071934857</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.3709351122379303</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.2723905742168427</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.3758666515350342</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>55</v>
+      </c>
+      <c r="C105" t="n">
+        <v>80</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9644045449058735</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.9644071946568433</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8673120776561386</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.4603950411981089</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.4693311744222829</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.4157939732327648</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.3565421104431152</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.3752187788486481</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.3321430683135986</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>60</v>
+      </c>
+      <c r="C106" t="n">
+        <v>20</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9536630482080604</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9603898226336985</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.8513747937385809</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.5242807797886125</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.4936403901325363</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.4349985819826362</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4124678373336792</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.4214630126953125</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.3456193506717682</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>60</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9430433640508321</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9367238580015931</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8271673429873039</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.5819675743551219</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.6296300809820693</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.4734701604876892</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4767925441265106</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.5190361142158508</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.3530851900577545</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>60</v>
+      </c>
+      <c r="C108" t="n">
+        <v>30</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9798706865649023</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.9826525224048099</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.8633251044908747</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.3477332962043396</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.3302487603820534</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.4159032822197161</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.2633041739463806</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.2626665532588959</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.3413213491439819</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>60</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9737411629273472</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9703562234591184</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.8693307493603518</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.3963689401139903</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.430820289699669</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.3936675598489436</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.3011627793312073</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.3381960988044739</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.2953338921070099</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>60</v>
+      </c>
+      <c r="C110" t="n">
+        <v>40</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9460072330918239</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9227741712103318</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.8781311361373778</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.565216129538394</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.6948190073660965</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.3803051167808164</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4157915413379669</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.5174341797828674</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.3084315359592438</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>60</v>
+      </c>
+      <c r="C111" t="n">
+        <v>45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9614641623910544</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.9633836894414343</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8289230807741609</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4802787839414315</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.4798081827102385</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.4749063418308517</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.3876802325248718</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.3899041712284088</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.3484229445457458</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>60</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9604108677342833</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.9775791536581335</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7754419586855237</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.4875119978088576</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.3716153544698875</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5332436738298451</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4042548537254333</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.3077494502067566</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.4729145765304565</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>60</v>
+      </c>
+      <c r="C113" t="n">
+        <v>55</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9593345818297103</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.9544123446051234</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9025108354985312</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.491098455515161</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5343870496227899</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.3429013309819491</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.3624371290206909</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.3622904717922211</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.2674337327480316</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>60</v>
+      </c>
+      <c r="C114" t="n">
+        <v>60</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9768112630636997</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.9786377445326532</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8684951791467355</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.3720283584770744</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.3644233920448463</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.389118379004127</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2968883216381073</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.3066545426845551</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.3004311919212341</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>60</v>
+      </c>
+      <c r="C115" t="n">
+        <v>65</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.9425324777442329</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9111376123541104</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8828882135146082</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.582761754135473</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.7446778128150366</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.3842731751890821</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.4439173340797424</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.5936955809593201</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.291580468416214</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>60</v>
+      </c>
+      <c r="C116" t="n">
+        <v>70</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9720805558268828</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.9845451728390674</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9152339348569355</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.4059826264469464</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.3099175440238282</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.3215269929580136</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.3118501603603363</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.2481434047222137</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.2624461650848389</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>60</v>
+      </c>
+      <c r="C117" t="n">
+        <v>75</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9799917622389333</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.9867412757056844</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9059175638181549</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.3447941181675789</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.2887192956898844</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.3396381435841528</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2589300572872162</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.2314822375774384</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.2642171680927277</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>60</v>
+      </c>
+      <c r="C118" t="n">
+        <v>80</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9662884440975564</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9721891990896687</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.8209133245756066</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4501594645032211</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.418736901718938</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4863723979851918</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.3554483354091644</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.3301557600498199</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.3791166841983795</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.9701373020212991</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9571220218931623</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9011033875621446</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.420139291945265</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.5153701325731902</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.3373843021234061</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.3135631680488586</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.4555366933345795</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.2529827654361725</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.9769906843607105</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.9910352586912319</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.8990816360374352</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.3701950635483531</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.234943772637915</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.348851335784932</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.2988753616809845</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.1913535445928574</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.2823546826839447</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.9757162972801473</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9814909074350425</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.873272746915906</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.381122713259164</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.3406777835335841</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.3930144091978503</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2840879261493683</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.2867142558097839</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.2830426394939423</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.9751853876420482</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.9792805026886087</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.8692474710231616</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.3849463256354371</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.359451306576224</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.3902325184332107</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.3020429611206055</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.2893534600734711</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.28607377409935</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>40</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.9681620507492409</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.9557715562763901</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8633586606912234</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.434562185832985</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.526808771109138</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.4311903767211251</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.3390255570411682</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.4436113834381104</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.3055505752563477</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>45</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9402666663513217</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9632843172189576</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.6412873288017469</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.5978230511641037</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4784659690783593</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.6672035206427984</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.5220661759376526</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.3997507691383362</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.5973150134086609</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.9490929142108413</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.9510443242480566</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.7666862152928072</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.5508574845602545</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.5514809513053317</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.5582995940685077</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.4554025530815125</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.447714239358902</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.4492045044898987</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>65</v>
+      </c>
+      <c r="C126" t="n">
+        <v>55</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.9663155644196282</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.9697154564006836</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8558859291690767</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4483913763430585</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.4312365267210729</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.4145377688393194</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.346441775560379</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.3361911773681641</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.3510497808456421</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>65</v>
+      </c>
+      <c r="C127" t="n">
+        <v>60</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9814115430188511</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.9778868441632482</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.8832128974361881</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.333177841944584</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.3722190259366057</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.3827749934604264</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.2469870299100876</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.3035180568695068</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.2758955359458923</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>65</v>
+      </c>
+      <c r="C128" t="n">
+        <v>65</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.9703358651632557</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.983916687267417</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.7319977060932046</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4206200761209267</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.3150717768560491</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.5684086362065209</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3418423235416412</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.2619254887104034</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.4940172731876373</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>65</v>
+      </c>
+      <c r="C129" t="n">
+        <v>70</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9781728056192333</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.9740904116015692</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8862494222394082</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.3614717971133786</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.4005510706539509</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.3693052863157152</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.279344379901886</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.3402493596076965</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.2926725149154663</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>65</v>
+      </c>
+      <c r="C130" t="n">
+        <v>75</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9760564294637306</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.9858200066241477</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.8702316636715054</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.3767673647447298</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.297775871790344</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.415389830520556</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.2882979810237885</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.2229135781526566</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.357359766960144</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>65</v>
+      </c>
+      <c r="C131" t="n">
+        <v>80</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9548638770855996</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.965126241998291</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.776001832685094</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.5193633475069523</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.4654956381907913</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.5282867195322384</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.397425651550293</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.3354216814041138</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.4558746814727783</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>70</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.9707246029938426</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.9828899806751973</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.8731171830681105</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.4167975478448415</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.3251323810892323</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.38542088514889</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.3266348242759705</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.2455001771450043</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.3161197602748871</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>70</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.9673611963641858</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.9597133376873794</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.8765792723368491</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.4404814493081415</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.5022736650287123</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.3864818965106776</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.3362328708171844</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.3929723799228668</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.3000153005123138</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>70</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.9836886477523764</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.9891349623610042</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.8825621732811055</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.3124252110632487</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.2606584936113323</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.3776751900888395</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.2435062378644943</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.2011426240205765</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.3111652433872223</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>70</v>
+      </c>
+      <c r="C135" t="n">
+        <v>35</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.962475087923081</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9593294054883581</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.8961816721575726</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.4713569468913271</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.5045388265532903</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.3687809599794531</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.3538937270641327</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.4145870208740234</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.2798689603805542</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>70</v>
+      </c>
+      <c r="C136" t="n">
+        <v>40</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9625986808811273</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.9392922371396834</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.875028450440423</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.4709267935646468</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.6145559294027475</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.3873141550666149</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.3693785071372986</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.5550805330276489</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.2951226532459259</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>70</v>
+      </c>
+      <c r="C137" t="n">
+        <v>45</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.905729117396859</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.8430620508504389</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.8216196714254539</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.748077073247139</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.9917452870519734</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.4635248466897584</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.5283690094947815</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.7235333919525146</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.3768569529056549</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>70</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.97046792371437</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.9707992044382117</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.7984397867171806</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.4212555753072926</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.4263766264558725</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.5114958765529316</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.3299578428268433</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.327588677406311</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.4208030700683594</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>70</v>
+      </c>
+      <c r="C139" t="n">
+        <v>55</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.9670423438904381</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.9849576401146181</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.7517628220539689</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.4456072049647375</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.3028550307499525</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.568979141691068</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.345967710018158</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.2511440813541412</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.4246977865695953</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>70</v>
+      </c>
+      <c r="C140" t="n">
+        <v>60</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.9551066426637516</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.9388404299706957</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.918614217429</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5150000223604216</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.619234649546486</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.314338236606363</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.3864513337612152</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.4970402717590332</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.231219083070755</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>70</v>
+      </c>
+      <c r="C141" t="n">
+        <v>65</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9782170412012688</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.974848031527658</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.8971880043415814</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.3595147690358911</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.3969298805378853</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.3498632585402736</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.2743522822856903</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.3266332745552063</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.2864810824394226</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>70</v>
+      </c>
+      <c r="C142" t="n">
+        <v>70</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.9803856004161239</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.9811677477278623</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9045121432070071</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.3404943552494595</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.3406841804120126</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.3394282311024073</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.2385160773992538</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.2784899473190308</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.2766469717025757</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>70</v>
+      </c>
+      <c r="C143" t="n">
+        <v>75</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.941127667556807</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.9736270728410247</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.5358964859056851</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.5979855197601393</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.4039620012363051</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.7581833787220716</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.5206204056739807</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.3368489444255829</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.6995591521263123</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>70</v>
+      </c>
+      <c r="C144" t="n">
+        <v>80</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.9443565098226134</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.9278291914595661</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.7862511777096495</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.5758767875592306</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.6693405654342054</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.4985200317360213</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.4740614593029022</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.62513667345047</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.3855733573436737</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>20</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.9147682194732909</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.9333923616175781</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.7101114650778133</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.7112707258399288</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.6439356277010591</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.5890794564394458</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.5965965986251831</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.5450666546821594</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.5056647062301636</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>75</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.9677546595620304</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.9566097873363461</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.8881457462020045</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.4370134236393071</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.5168767531433264</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.3673089212175429</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.3354833126068115</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.4610917270183563</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.283907413482666</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>75</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.9751556719535652</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.9879530195662969</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9089189514606778</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.3837988466369728</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.2718850479242346</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.3363045971092</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.3042418360710144</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.2266163676977158</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.2658727467060089</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>75</v>
+      </c>
+      <c r="C148" t="n">
+        <v>35</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.9656128207730621</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.961548839415306</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.8265160499025836</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4534420351291959</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.4887631898939281</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.467767830896724</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.3629117608070374</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.4194840490818024</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.3518272638320923</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>40</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.9673180475803604</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.9520269997700317</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.8418298165862922</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.44021711273333</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.5491727242644611</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.4464864815890059</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.3436441421508789</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.4555302858352661</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.3577068448066711</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>75</v>
+      </c>
+      <c r="C150" t="n">
+        <v>45</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9658914913981507</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.9720674113214123</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.8394914702565208</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.4500028815442121</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.4176282832939474</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.4333044582002014</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.3297067582607269</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.3398820459842682</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.3236913979053497</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>75</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.9789273263803255</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.9768748779166446</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.8904877286130934</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.3530730749455242</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.3785909737151808</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.3625404434005173</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.2706627547740936</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.306895911693573</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.295102059841156</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>75</v>
+      </c>
+      <c r="C152" t="n">
+        <v>55</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.9745616963921854</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.9914021131800007</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.6841543845512859</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.3943315321518936</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.2302214621271119</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.6344159380852936</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.3246308863162994</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.1805687844753265</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.5794062614440918</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>75</v>
+      </c>
+      <c r="C153" t="n">
+        <v>60</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.9670450481477839</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.9787359386454845</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.7968617045026015</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.4443467861989061</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.3649047547336137</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.5097273011983863</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.3661831915378571</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.3013664484024048</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.4203009605407715</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>75</v>
+      </c>
+      <c r="C154" t="n">
+        <v>65</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.9784671600629702</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.9780094265781762</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.8942588062709227</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.3568513412783904</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.3682695030374971</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.3595593642972176</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.2693498134613037</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.2709356546401978</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.2761103510856628</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>75</v>
+      </c>
+      <c r="C155" t="n">
+        <v>70</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9761719756954782</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.9640736311788601</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9206501105925582</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.3752213262051919</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.4755738587774495</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.3196153031207126</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.2679102122783661</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.3948112726211548</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.2388919293880463</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>75</v>
+      </c>
+      <c r="C156" t="n">
+        <v>75</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.9759307761245045</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.9715997299334919</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.8243948572138673</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.3783977872327642</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.4210359034677851</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.4700216369771957</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.2837404906749725</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.3473781049251556</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.4115417897701263</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>75</v>
+      </c>
+      <c r="C157" t="n">
+        <v>80</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.9678856144950915</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.9352288000507955</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9000648316011565</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.4359605817255867</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.6354680796184244</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.3515658908256616</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.3276239633560181</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.5670375823974609</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.2582829594612122</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>80</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.979072757617289</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.9797698124223498</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.8262531058548064</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.3542374465376444</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.3569644231045628</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.4729468973163074</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.2710151076316833</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.2866895198822021</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.3684925734996796</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>80</v>
+      </c>
+      <c r="C159" t="n">
+        <v>25</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9746161171554849</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.9599039006368978</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9123663321129409</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.3870743551879511</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.5021605897825472</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.3285284627249913</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.2893178164958954</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.4450860321521759</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.2318417280912399</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>80</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9583109532064447</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.9524578750124089</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.8449277308159791</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.4982400855988685</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.5450703408405936</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.4381828768889869</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.3813174366950989</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.4366901516914368</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.3455763757228851</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>80</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.9667853202733595</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.9715791700287081</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.8828206327593574</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.44455899519057</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.4172819859236741</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.3741272067748299</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.3687950074672699</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.3553544282913208</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.2960658371448517</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>80</v>
+      </c>
+      <c r="C162" t="n">
+        <v>40</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.9702312087631962</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.9781064617232923</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.8756876113125698</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.4205848605543485</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.3684580309763554</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.4067046665621301</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.324516624212265</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.3077849447727203</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.3049795031547546</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>80</v>
+      </c>
+      <c r="C163" t="n">
+        <v>45</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.9676642444090686</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.9736671671712088</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.8282708756344139</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.438434896209881</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.403275364918207</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.4804151861835749</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.3481001853942871</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.2982646524906158</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.3964619338512421</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>80</v>
+      </c>
+      <c r="C164" t="n">
+        <v>50</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.9709804473568201</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.9618794380391792</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.8384945361878187</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.4148552341631672</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.4852550264753622</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.4465232918934054</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.3118724524974823</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.3898418247699738</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.3649764358997345</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>80</v>
+      </c>
+      <c r="C165" t="n">
+        <v>55</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.9633867143110536</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.9711057053882804</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.8308244634604665</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.4674979176959414</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.4242205231631264</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.4623339400003262</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.3666291534900665</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.3362412452697754</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.3738259375095367</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>80</v>
+      </c>
+      <c r="C166" t="n">
+        <v>60</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.9827344781215996</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.9895166439931741</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.8877278934782431</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.3196620034746027</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.253928961104925</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.3684317629936134</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.2357229441404343</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.1887620687484741</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.2861985862255096</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>80</v>
+      </c>
+      <c r="C167" t="n">
+        <v>65</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.9050692085573603</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8627142390477925</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.7432688128728917</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.7518911360914138</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.9237176938014934</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.5495409154923229</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.609744131565094</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.7974283695220947</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.4286046624183655</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>80</v>
+      </c>
+      <c r="C168" t="n">
+        <v>70</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.960820478356834</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.9745668344737118</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.836742875490601</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.4825364876326933</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.3972495264262983</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.4466674002361442</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.3761180937290192</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.334124892950058</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.3836835026741028</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>80</v>
+      </c>
+      <c r="C169" t="n">
+        <v>75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9055401021961843</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.9412406324338189</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.4726632473418326</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.7533003195418239</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.6022790381753622</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.8022898907585237</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.667887270450592</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.4977450668811798</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.7472517490386963</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>80</v>
+      </c>
+      <c r="C170" t="n">
+        <v>80</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.9674242622577013</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.9544592562843415</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.8613711091062295</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.4402320739902588</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.5335806882720132</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.425461325186654</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.3331937789916992</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.4094167351722717</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.3195681571960449</v>
       </c>
     </row>
   </sheetData>

--- a/2HL_Neurons_Network_Results_TTS.xlsx
+++ b/2HL_Neurons_Network_Results_TTS.xlsx
@@ -506,31 +506,31 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9698355765527821</v>
+        <v>0.9164323661316226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9644984431757918</v>
+        <v>0.8694707282976121</v>
       </c>
       <c r="F2" t="n">
-        <v>0.808449891438738</v>
+        <v>0.8361751097429351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4236716759575895</v>
+        <v>0.7039915678795396</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4690867803644276</v>
+        <v>0.9011388884262685</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4929399339865627</v>
+        <v>0.441138431017074</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3214141726493835</v>
+        <v>0.5573980212211609</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3997763097286224</v>
+        <v>0.7399336695671082</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3982564806938171</v>
+        <v>0.3488717377185822</v>
       </c>
     </row>
     <row r="3">
@@ -544,31 +544,31 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9095625355520195</v>
+        <v>0.9747900947552444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9088893342034613</v>
+        <v>0.9817943186235054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4235134380443132</v>
+        <v>0.8752000929301873</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7363634581651268</v>
+        <v>0.3882721038293777</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7515533573601748</v>
+        <v>0.3369575030199197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8699050456330369</v>
+        <v>0.3831186821744912</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6251075863838196</v>
+        <v>0.3043371140956879</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6388336420059204</v>
+        <v>0.2556709051132202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7085952758789062</v>
+        <v>0.3183031380176544</v>
       </c>
     </row>
     <row r="4">
@@ -582,31 +582,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9661875266343067</v>
+        <v>0.9800261632433691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9602695492145947</v>
+        <v>0.9831798781367509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8721104073946367</v>
+        <v>0.8554551613649306</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4478988496060853</v>
+        <v>0.3446446610544009</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4986187662073014</v>
+        <v>0.323093310873772</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3929308355405476</v>
+        <v>0.4213185349131084</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3561184406280518</v>
+        <v>0.2667192816734314</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4024994075298309</v>
+        <v>0.2555510103702545</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2946502864360809</v>
+        <v>0.3299598097801208</v>
       </c>
     </row>
     <row r="5">
@@ -620,31 +620,31 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9661070290844544</v>
+        <v>0.910453530918091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9532010122642085</v>
+        <v>0.9119809974569478</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8676982521459576</v>
+        <v>0.5871068407715009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4479247654323152</v>
+        <v>0.7319604666410214</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5422484196015082</v>
+        <v>0.7399203155117701</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4256333960602679</v>
+        <v>0.6940728828034868</v>
       </c>
       <c r="J5" t="n">
-        <v>0.336025059223175</v>
+        <v>0.5691921710968018</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4176231920719147</v>
+        <v>0.6121253967285156</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2973446547985077</v>
+        <v>0.5831815600395203</v>
       </c>
     </row>
     <row r="6">
@@ -658,31 +658,31 @@
         <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9641307692385053</v>
+        <v>0.9594126576563395</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9572133528126645</v>
+        <v>0.9657796424409616</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8891603824469058</v>
+        <v>0.7850194111494277</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4611722542336139</v>
+        <v>0.4913354037208664</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5153956914851913</v>
+        <v>0.4601955422948968</v>
       </c>
       <c r="I6" t="n">
-        <v>0.384332635917483</v>
+        <v>0.5362487556425298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3596290946006775</v>
+        <v>0.3617338836193085</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4388187825679779</v>
+        <v>0.3714016973972321</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2886303961277008</v>
+        <v>0.4002948403358459</v>
       </c>
     </row>
     <row r="7">
@@ -696,31 +696,31 @@
         <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9752588083005829</v>
+        <v>0.9819430617212354</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9666895746610211</v>
+        <v>0.9802579652614982</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8973995196484497</v>
+        <v>0.8874607691301015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3826837323103148</v>
+        <v>0.3279274504757363</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4568108573379867</v>
+        <v>0.3517184441462186</v>
       </c>
       <c r="I7" t="n">
-        <v>0.350828166789222</v>
+        <v>0.3921258513186318</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2896507084369659</v>
+        <v>0.2453511655330658</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3837620913982391</v>
+        <v>0.2973006963729858</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2561556100845337</v>
+        <v>0.2771285176277161</v>
       </c>
     </row>
     <row r="8">
@@ -734,31 +734,31 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9740235234317522</v>
+        <v>0.9572770945420701</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9759496986665556</v>
+        <v>0.9389650278011663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8444644927711746</v>
+        <v>0.7647743768923739</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3922056262322288</v>
+        <v>0.5053042160232745</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3870353751180253</v>
+        <v>0.6138659320348754</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4465224576046133</v>
+        <v>0.5455872496646974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2924290299415588</v>
+        <v>0.4093963503837585</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3147103190422058</v>
+        <v>0.5179917216300964</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3456055223941803</v>
+        <v>0.4542346894741058</v>
       </c>
     </row>
     <row r="9">
@@ -772,31 +772,31 @@
         <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9559409136249521</v>
+        <v>0.968024860598242</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9503579204535273</v>
+        <v>0.9516803740497939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8132416311852571</v>
+        <v>0.8793380002756211</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5129061020363016</v>
+        <v>0.4354669985207278</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5552772288372478</v>
+        <v>0.5519712592275615</v>
       </c>
       <c r="I9" t="n">
-        <v>0.476328370161652</v>
+        <v>0.3771870337027486</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3866413533687592</v>
+        <v>0.3410507440567017</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4546576738357544</v>
+        <v>0.4540804028511047</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3666657209396362</v>
+        <v>0.2835370898246765</v>
       </c>
     </row>
     <row r="10">
@@ -810,31 +810,31 @@
         <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9618771218848219</v>
+        <v>0.9817000380832402</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9509106254117599</v>
+        <v>0.9853613276543299</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8804991925657973</v>
+        <v>0.8938912920391812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.476369975239447</v>
+        <v>0.329386873266488</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5474200393691712</v>
+        <v>0.3037114894653407</v>
       </c>
       <c r="I10" t="n">
-        <v>0.379867945676817</v>
+        <v>0.3732854868926641</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3430745303630829</v>
+        <v>0.2529996931552887</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4198702871799469</v>
+        <v>0.2575009167194366</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3000944852828979</v>
+        <v>0.2793972194194794</v>
       </c>
     </row>
     <row r="11">
@@ -848,31 +848,31 @@
         <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9766642986713255</v>
+        <v>0.952686320298517</v>
       </c>
       <c r="E11" t="n">
-        <v>0.97340110739049</v>
+        <v>0.9703062055337259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8770222317488855</v>
+        <v>0.5740251541964756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3717321826869687</v>
+        <v>0.5346044772697398</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4082978608657201</v>
+        <v>0.4325631755927754</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4091462916035878</v>
+        <v>0.7339594862668368</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2883003354072571</v>
+        <v>0.4441230595111847</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3432406485080719</v>
+        <v>0.3496731817722321</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3073989748954773</v>
+        <v>0.6491419672966003</v>
       </c>
     </row>
     <row r="12">
@@ -886,31 +886,31 @@
         <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9547232527205749</v>
+        <v>0.9343977925650953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.970521902646029</v>
+        <v>0.9635808717437899</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7944602302416887</v>
+        <v>0.6424605042403636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5196570050622166</v>
+        <v>0.6279518040489357</v>
       </c>
       <c r="H12" t="n">
-        <v>0.423808242401803</v>
+        <v>0.4730754443612824</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4955083892903112</v>
+        <v>0.6831603283834347</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4308495223522186</v>
+        <v>0.5398977398872375</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3588840961456299</v>
+        <v>0.3951276838779449</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4089995920658112</v>
+        <v>0.609310507774353</v>
       </c>
     </row>
     <row r="13">
@@ -924,31 +924,31 @@
         <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9587169807051429</v>
+        <v>0.9647355885945557</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9504778473723404</v>
+        <v>0.9738681050730166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.762387907600257</v>
+        <v>0.7551307019007741</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4969072505393156</v>
+        <v>0.4618814468966251</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5508485577086166</v>
+        <v>0.4033368640671559</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5420518172170389</v>
+        <v>0.562927216314046</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3818131387233734</v>
+        <v>0.3622331321239471</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4344402849674225</v>
+        <v>0.3053283989429474</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4295802116394043</v>
+        <v>0.4598294794559479</v>
       </c>
     </row>
     <row r="14">
@@ -962,31 +962,31 @@
         <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>0.973117653348311</v>
+        <v>0.9568803768364862</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9804789157517146</v>
+        <v>0.9389417839269291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8559450212094678</v>
+        <v>0.8561372533436423</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3994940418854243</v>
+        <v>0.5073210759290435</v>
       </c>
       <c r="H14" t="n">
-        <v>0.349712548402815</v>
+        <v>0.6194080773922228</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4351002751344492</v>
+        <v>0.4221252652766981</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2989345788955688</v>
+        <v>0.4055646061897278</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2770683467388153</v>
+        <v>0.5188683867454529</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3484543859958649</v>
+        <v>0.3159478306770325</v>
       </c>
     </row>
     <row r="15">
@@ -1000,31 +1000,31 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9838388859274469</v>
+        <v>0.9785318543822626</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9949534382161597</v>
+        <v>0.9789705901854391</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8876075962156433</v>
+        <v>0.8596317186380762</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3106510539420887</v>
+        <v>0.3594472853897814</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1780900958647377</v>
+        <v>0.3618659270010597</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3647061572495724</v>
+        <v>0.4046017699586656</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2388588786125183</v>
+        <v>0.2794781029224396</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1457104831933975</v>
+        <v>0.2907536923885345</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2896682620048523</v>
+        <v>0.3138666450977325</v>
       </c>
     </row>
     <row r="16">
@@ -1038,31 +1038,31 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9718634940731036</v>
+        <v>0.9159109986858874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9781073813022321</v>
+        <v>0.8935734460480287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8660402980653599</v>
+        <v>0.7390031490770277</v>
       </c>
       <c r="G16" t="n">
-        <v>0.408298900994983</v>
+        <v>0.705619097263458</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3693537021441611</v>
+        <v>0.814728102701998</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4002384734069564</v>
+        <v>0.5915335645415248</v>
       </c>
       <c r="J16" t="n">
-        <v>0.315630316734314</v>
+        <v>0.5406463742256165</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2809449136257172</v>
+        <v>0.644702672958374</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3401288390159607</v>
+        <v>0.4349645376205444</v>
       </c>
     </row>
     <row r="17">
@@ -1076,31 +1076,31 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.963142010389877</v>
+        <v>0.9760805634547574</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9701569356047102</v>
+        <v>0.9771779137918439</v>
       </c>
       <c r="F17" t="n">
-        <v>0.877605480405536</v>
+        <v>0.8823649457780229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4674270398535071</v>
+        <v>0.3780975954513041</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4312705270055955</v>
+        <v>0.3786067368770991</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3885460271241223</v>
+        <v>0.3763318649527457</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3829898834228516</v>
+        <v>0.2914174199104309</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3398900032043457</v>
+        <v>0.2747357189655304</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2971401214599609</v>
+        <v>0.3079994320869446</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>0.967443218660919</v>
+        <v>0.9295514307641088</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9740279982602665</v>
+        <v>0.9544153134429811</v>
       </c>
       <c r="F18" t="n">
-        <v>0.902462337696553</v>
+        <v>0.5737238039311101</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4389453582342697</v>
+        <v>0.6518096107611274</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4029662307536262</v>
+        <v>0.5301113829443572</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3421909131790012</v>
+        <v>0.7320067997027734</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3242700695991516</v>
+        <v>0.5579270720481873</v>
       </c>
       <c r="K18" t="n">
-        <v>0.33543860912323</v>
+        <v>0.4561201930046082</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2582732737064362</v>
+        <v>0.6319913268089294</v>
       </c>
     </row>
     <row r="19">
@@ -1152,31 +1152,31 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8886137941627089</v>
+        <v>0.9578546608420579</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8633129265549561</v>
+        <v>0.9553824413160059</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7585450917370127</v>
+        <v>0.8518356771407036</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8132560586829699</v>
+        <v>0.5013820799044998</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9226545819970799</v>
+        <v>0.5272694853306302</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5378621046030655</v>
+        <v>0.4220814729456872</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6477026343345642</v>
+        <v>0.4018260836601257</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7789252400398254</v>
+        <v>0.4280019104480743</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4057613909244537</v>
+        <v>0.3402521312236786</v>
       </c>
     </row>
     <row r="20">
@@ -1190,31 +1190,31 @@
         <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9621778617399701</v>
+        <v>0.9784643476653153</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9532891488453376</v>
+        <v>0.9796322559162851</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7819595930988167</v>
+        <v>0.829167981261382</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4751318735971816</v>
+        <v>0.358106489052631</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5395917367710391</v>
+        <v>0.3579696876383723</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5338338398358843</v>
+        <v>0.4570319998971378</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3795030117034912</v>
+        <v>0.2739146053791046</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46109738945961</v>
+        <v>0.2953283786773682</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4224168360233307</v>
+        <v>0.3885919451713562</v>
       </c>
     </row>
     <row r="21">
@@ -1228,31 +1228,31 @@
         <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9373693110973683</v>
+        <v>0.9698076523784348</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9460806562614241</v>
+        <v>0.9651239764340556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7537966072328477</v>
+        <v>0.8862613288716763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6124327067952481</v>
+        <v>0.4232786281725575</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5765865320919245</v>
+        <v>0.4663061651196573</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5638430245021699</v>
+        <v>0.3741180658778033</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4620968699455261</v>
+        <v>0.342278003692627</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4491260051727295</v>
+        <v>0.4088844060897827</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4307181239128113</v>
+        <v>0.2845809757709503</v>
       </c>
     </row>
     <row r="22">
@@ -1266,31 +1266,31 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9587707773046298</v>
+        <v>0.978765842231459</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9752928413868206</v>
+        <v>0.9867451408480664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7124943043112333</v>
+        <v>0.8712215778241565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4977067721126698</v>
+        <v>0.3554058228851331</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3904721151621361</v>
+        <v>0.2857983167045827</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6148847767424286</v>
+        <v>0.414702173273837</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4181183576583862</v>
+        <v>0.2791378498077393</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3267177939414978</v>
+        <v>0.2281920909881592</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5338730812072754</v>
+        <v>0.315799355506897</v>
       </c>
     </row>
     <row r="23">
@@ -1304,31 +1304,31 @@
         <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9777394142911147</v>
+        <v>0.9464763724638913</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9821310162174979</v>
+        <v>0.9395866059276099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8363214035468114</v>
+        <v>0.8238766852834363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3641113723237158</v>
+        <v>0.5643754265446704</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3319311215386351</v>
+        <v>0.6170736521730547</v>
       </c>
       <c r="I23" t="n">
-        <v>0.437589261622104</v>
+        <v>0.4771968496889335</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2764011323451996</v>
+        <v>0.4595728516578674</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2733029425144196</v>
+        <v>0.5078325867652893</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3669334352016449</v>
+        <v>0.3868489265441895</v>
       </c>
     </row>
     <row r="24">
@@ -1342,31 +1342,31 @@
         <v>65</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9421629271866538</v>
+        <v>0.9478035208304206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9678367247068924</v>
+        <v>0.9560444961794627</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7392374853004555</v>
+        <v>0.8328673190009193</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5905548760500029</v>
+        <v>0.5557917496807722</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4438039424507959</v>
+        <v>0.5196943959084281</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5703519520112607</v>
+        <v>0.4391291462555643</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4935345351696014</v>
+        <v>0.4430863559246063</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3586123883724213</v>
+        <v>0.4382901191711426</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5178272724151611</v>
+        <v>0.3561952114105225</v>
       </c>
     </row>
     <row r="25">
@@ -1380,31 +1380,31 @@
         <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>0.976778395403745</v>
+        <v>0.9661941073009046</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9837520522514431</v>
+        <v>0.9536255868056334</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8930351319311673</v>
+        <v>0.823988450110123</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3712559997831582</v>
+        <v>0.4498396190309209</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3166363550515212</v>
+        <v>0.5360829759236149</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3582641391519535</v>
+        <v>0.4601879167266041</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2869951725006104</v>
+        <v>0.3598310351371765</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2606666386127472</v>
+        <v>0.4639306366443634</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2876891493797302</v>
+        <v>0.3555216193199158</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9464368207217206</v>
+        <v>0.9777586203563857</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9265399042340589</v>
+        <v>0.9826164988311181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8355408200449828</v>
+        <v>0.8685363328199596</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5635782609529216</v>
+        <v>0.3641523970587771</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6752686072069932</v>
+        <v>0.3295736012165289</v>
       </c>
       <c r="I26" t="n">
-        <v>0.454093572074567</v>
+        <v>0.4036240253915181</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4078908860683441</v>
+        <v>0.286546915769577</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4766199588775635</v>
+        <v>0.250844419002533</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3541881740093231</v>
+        <v>0.3348212838172913</v>
       </c>
     </row>
     <row r="27">
@@ -1456,31 +1456,31 @@
         <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>0.96984749585826</v>
+        <v>0.9608661943704828</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9718223417383487</v>
+        <v>0.9429211838941589</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8891265126970321</v>
+        <v>0.8364299213791937</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4226989118159997</v>
+        <v>0.4829516571386942</v>
       </c>
       <c r="H27" t="n">
-        <v>0.417272594074446</v>
+        <v>0.5982993661205435</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3571407692711973</v>
+        <v>0.4467292467920839</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3265829384326935</v>
+        <v>0.3787185251712799</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3478792905807495</v>
+        <v>0.5021547675132751</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2764884233474731</v>
+        <v>0.3536405861377716</v>
       </c>
     </row>
     <row r="28">
@@ -1494,31 +1494,31 @@
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9649018010962329</v>
+        <v>0.9787895172146636</v>
       </c>
       <c r="E28" t="n">
-        <v>0.961691181182142</v>
+        <v>0.9775787451985398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.873720277977807</v>
+        <v>0.8074983351566634</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4569505147456676</v>
+        <v>0.358974565407236</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4845501213987201</v>
+        <v>0.3753372503754376</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3808963464251751</v>
+        <v>0.4834487426476339</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3481312990188599</v>
+        <v>0.2708905637264252</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3933562934398651</v>
+        <v>0.3069267570972443</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3026296198368073</v>
+        <v>0.377873957157135</v>
       </c>
     </row>
     <row r="29">
@@ -1532,31 +1532,31 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9605377715163773</v>
+        <v>0.9732960190496119</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9612076686859697</v>
+        <v>0.9697800390592487</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8477373525765626</v>
+        <v>0.8948389609349217</v>
       </c>
       <c r="G29" t="n">
-        <v>0.484314914791375</v>
+        <v>0.398317730423797</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4888689090639009</v>
+        <v>0.4330163324229375</v>
       </c>
       <c r="I29" t="n">
-        <v>0.422970409298458</v>
+        <v>0.3638017268942541</v>
       </c>
       <c r="J29" t="n">
-        <v>0.366960346698761</v>
+        <v>0.3094590306282043</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4297720193862915</v>
+        <v>0.3712939321994781</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3236422836780548</v>
+        <v>0.2533555924892426</v>
       </c>
     </row>
     <row r="30">
@@ -1570,31 +1570,31 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9752642658176902</v>
+        <v>0.9758564423745468</v>
       </c>
       <c r="E30" t="n">
-        <v>0.978013612973146</v>
+        <v>0.9833543460833872</v>
       </c>
       <c r="F30" t="n">
-        <v>0.897766788857271</v>
+        <v>0.7613963903137561</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3831311087253574</v>
+        <v>0.3827598107337005</v>
       </c>
       <c r="H30" t="n">
-        <v>0.371156948129091</v>
+        <v>0.3237369013128538</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3526629708342224</v>
+        <v>0.5596353383254299</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2953336536884308</v>
+        <v>0.2979499697685242</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2980897426605225</v>
+        <v>0.2205704301595688</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2790428698062897</v>
+        <v>0.4741849601268768</v>
       </c>
     </row>
     <row r="31">
@@ -1608,31 +1608,31 @@
         <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>0.946300653475217</v>
+        <v>0.9651873408200961</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9384225803624943</v>
+        <v>0.9526706639007323</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8155871687409089</v>
+        <v>0.8680218888212047</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5642208690703876</v>
+        <v>0.4552312601486019</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6166628043809859</v>
+        <v>0.5383760532114653</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4664373409828632</v>
+        <v>0.3958912250782095</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4335614442825317</v>
+        <v>0.3422864079475403</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4950686991214752</v>
+        <v>0.4480520486831665</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3821057677268982</v>
+        <v>0.2999441623687744</v>
       </c>
     </row>
     <row r="32">
@@ -1646,31 +1646,31 @@
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9188946293901056</v>
+        <v>0.9720772331649191</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8926623219165004</v>
+        <v>0.9600703901323814</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6107535526859349</v>
+        <v>0.8324453414503479</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6969331221013247</v>
+        <v>0.4067919673956988</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8170861146663292</v>
+        <v>0.4983404154683608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6813892895801519</v>
+        <v>0.4744652580319156</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5730749368667603</v>
+        <v>0.3219859302043915</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7020386457443237</v>
+        <v>0.4145393073558807</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6016502380371094</v>
+        <v>0.3576721251010895</v>
       </c>
     </row>
     <row r="33">
@@ -1684,31 +1684,31 @@
         <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>0.984655471367334</v>
+        <v>0.9736016826344592</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9827761382421757</v>
+        <v>0.9681836007814492</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9140237650735595</v>
+        <v>0.8265243646050493</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3026954256658851</v>
+        <v>0.3966453864229003</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3275064701249275</v>
+        <v>0.4441713636190526</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3226867813739241</v>
+        <v>0.4559539749065949</v>
       </c>
       <c r="J33" t="n">
-        <v>0.218745231628418</v>
+        <v>0.2989765107631683</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2738153338432312</v>
+        <v>0.3456336259841919</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2496907860040665</v>
+        <v>0.3777008354663849</v>
       </c>
     </row>
     <row r="34">
@@ -1722,31 +1722,31 @@
         <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9761526979012614</v>
+        <v>0.9727176014992268</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9844208864065205</v>
+        <v>0.9649398640607201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8381460517172519</v>
+        <v>0.8831627246627427</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3782196312706319</v>
+        <v>0.4023102496375935</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3107601848691748</v>
+        <v>0.4689153538563458</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4359706647282777</v>
+        <v>0.3792095739938616</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2828572690486908</v>
+        <v>0.2851820588111877</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2322651743888855</v>
+        <v>0.3502979576587677</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3220381736755371</v>
+        <v>0.2776222825050354</v>
       </c>
     </row>
     <row r="35">
@@ -1760,31 +1760,31 @@
         <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9452115309868283</v>
+        <v>0.9744928046719443</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9574841940571271</v>
+        <v>0.984578251100429</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7632600697828308</v>
+        <v>0.8876785645442903</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5737279753935183</v>
+        <v>0.3894706071700546</v>
       </c>
       <c r="H35" t="n">
-        <v>0.513750396644829</v>
+        <v>0.3107167505082741</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5618696389457041</v>
+        <v>0.3701018277405818</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4598684012889862</v>
+        <v>0.3187190294265747</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4414008557796478</v>
+        <v>0.2577002048492432</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4369910359382629</v>
+        <v>0.2932970821857452</v>
       </c>
     </row>
     <row r="36">
@@ -1798,31 +1798,31 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9794608203464367</v>
+        <v>0.9596232992189141</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9921940174197599</v>
+        <v>0.9684798941958109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8616711938898217</v>
+        <v>0.7724083482575387</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3513939453420009</v>
+        <v>0.4932752578318234</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2185594290593136</v>
+        <v>0.444115133233362</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4091324517200521</v>
+        <v>0.545944403008074</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2797840237617493</v>
+        <v>0.4019413888454437</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1743266880512238</v>
+        <v>0.3584616184234619</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3666950166225433</v>
+        <v>0.4344462156295776</v>
       </c>
     </row>
     <row r="37">
@@ -1836,31 +1836,31 @@
         <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9621486817572293</v>
+        <v>0.954459283417773</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9743854388417696</v>
+        <v>0.9399334235751196</v>
       </c>
       <c r="F37" t="n">
-        <v>0.773915056342024</v>
+        <v>0.8295342401373758</v>
       </c>
       <c r="G37" t="n">
-        <v>0.475938732724212</v>
+        <v>0.5210319013365575</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3972654119470376</v>
+        <v>0.6131494708529511</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5483859578662335</v>
+        <v>0.4515669442984386</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3847488164901733</v>
+        <v>0.4108946025371552</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2841149270534515</v>
+        <v>0.4689150750637054</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4481866359710693</v>
+        <v>0.3705528676509857</v>
       </c>
     </row>
     <row r="38">
@@ -1874,31 +1874,31 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9733631815940018</v>
+        <v>0.9523041307384829</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9738868061374413</v>
+        <v>0.9714026625266236</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8737776653501421</v>
+        <v>0.8529495499368998</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3986974317106275</v>
+        <v>0.5336033084398647</v>
       </c>
       <c r="H38" t="n">
-        <v>0.403962646767597</v>
+        <v>0.4188923657800994</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4025430648582528</v>
+        <v>0.4200819730520343</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3114549517631531</v>
+        <v>0.4463095664978027</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3190534710884094</v>
+        <v>0.3475496768951416</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3084920644760132</v>
+        <v>0.3774099349975586</v>
       </c>
     </row>
     <row r="39">
@@ -1912,31 +1912,31 @@
         <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>0.917309965755974</v>
+        <v>0.9600621797839189</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9419338356156237</v>
+        <v>0.9713611356538354</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6803272090672028</v>
+        <v>0.7925632349006705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.702751844781648</v>
+        <v>0.4881901312686217</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6000915229055593</v>
+        <v>0.4214031088106948</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6185008452879204</v>
+        <v>0.5022720333182445</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5900754332542419</v>
+        <v>0.4109323024749756</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4660444259643555</v>
+        <v>0.3563827872276306</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5518091917037964</v>
+        <v>0.4356688261032104</v>
       </c>
     </row>
     <row r="40">
@@ -1950,31 +1950,31 @@
         <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9713008766342422</v>
+        <v>0.9761303410617177</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9714906805780849</v>
+        <v>0.970566663522982</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8549292886630676</v>
+        <v>0.8678666500013942</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4135833883338649</v>
+        <v>0.3766364116073003</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4214453275197735</v>
+        <v>0.4245394349950106</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4305622040925745</v>
+        <v>0.4153575438218828</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3216519355773926</v>
+        <v>0.2874261140823364</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3284737169742584</v>
+        <v>0.3587978184223175</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3231166303157806</v>
+        <v>0.3158454895019531</v>
       </c>
     </row>
     <row r="41">
@@ -1988,31 +1988,31 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9226690770209756</v>
+        <v>0.9635043561130879</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8654721930020612</v>
+        <v>0.9608989701353315</v>
       </c>
       <c r="F41" t="n">
-        <v>0.700002770892109</v>
+        <v>0.8808520726554123</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6781952140424934</v>
+        <v>0.4657976636838652</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9176694990955689</v>
+        <v>0.4944475298941826</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6192142912063798</v>
+        <v>0.3783110633708121</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5518321990966797</v>
+        <v>0.3433336615562439</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8162298798561096</v>
+        <v>0.4104284942150116</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4758764505386353</v>
+        <v>0.2826786935329437</v>
       </c>
     </row>
     <row r="42">
@@ -2026,31 +2026,31 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9710530594595814</v>
+        <v>0.9202845985422045</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9688046663690212</v>
+        <v>0.9119240969283683</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7892257992699768</v>
+        <v>0.7553311681994692</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4167344236912731</v>
+        <v>0.6874625455884227</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4435339932504365</v>
+        <v>0.7380826571962739</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5181659167875203</v>
+        <v>0.5595750525575034</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3263511657714844</v>
+        <v>0.5649113059043884</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3552190959453583</v>
+        <v>0.5827505588531494</v>
       </c>
       <c r="L42" t="n">
-        <v>0.389131486415863</v>
+        <v>0.4366753101348877</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9764043221417015</v>
+        <v>0.9129967622889792</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9697514734332128</v>
+        <v>0.8585387409552538</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8849483246268128</v>
+        <v>0.8247826039510613</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3745336016412844</v>
+        <v>0.7173629313475895</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4351744149763894</v>
+        <v>0.9366275860709882</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3669987457160409</v>
+        <v>0.4693479538806803</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2763602137565613</v>
+        <v>0.5419800281524658</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3423968851566315</v>
+        <v>0.7128468751907349</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2756498754024506</v>
+        <v>0.3737192153930664</v>
       </c>
     </row>
     <row r="44">
@@ -2102,31 +2102,31 @@
         <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9703973907081952</v>
+        <v>0.948565281482011</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9864796293154092</v>
+        <v>0.9491870693748587</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8465037647049174</v>
+        <v>0.8722335568286275</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4210128274705383</v>
+        <v>0.5531123995019211</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2885192069919252</v>
+        <v>0.5611947333178472</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4428313720116751</v>
+        <v>0.3901463246028304</v>
       </c>
       <c r="J44" t="n">
-        <v>0.32968670129776</v>
+        <v>0.4576145112514496</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2152645289897919</v>
+        <v>0.4774534106254578</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3372275233268738</v>
+        <v>0.3110884130001068</v>
       </c>
     </row>
     <row r="45">
@@ -2140,31 +2140,31 @@
         <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9630947743910507</v>
+        <v>0.9777103106542772</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9820502488263142</v>
+        <v>0.977664679937525</v>
       </c>
       <c r="F45" t="n">
-        <v>0.844084010535306</v>
+        <v>0.8276500383420816</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4694317945616883</v>
+        <v>0.3650365079297465</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3331301735624762</v>
+        <v>0.3714512759123222</v>
       </c>
       <c r="I45" t="n">
-        <v>0.44624668980287</v>
+        <v>0.4529458382356043</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3844408988952637</v>
+        <v>0.282100111246109</v>
       </c>
       <c r="K45" t="n">
-        <v>0.252735823392868</v>
+        <v>0.3032982051372528</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3652085661888123</v>
+        <v>0.3520500361919403</v>
       </c>
     </row>
     <row r="46">
@@ -2178,31 +2178,31 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9778163450954667</v>
+        <v>0.9750397352298289</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9769864533139845</v>
+        <v>0.9672278174757301</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8794618511979811</v>
+        <v>0.9095131377831462</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3642875720592486</v>
+        <v>0.3847974773719346</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3769813685138984</v>
+        <v>0.4519990711381955</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3738808223050373</v>
+        <v>0.3248141578124069</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2821100354194641</v>
+        <v>0.2936851978302002</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3192067742347717</v>
+        <v>0.3688945472240448</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2771470546722412</v>
+        <v>0.2422792315483093</v>
       </c>
     </row>
     <row r="47">
@@ -2216,31 +2216,31 @@
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9734932701257321</v>
+        <v>0.9721718225448523</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9690657700402249</v>
+        <v>0.9597227822679221</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9182051129845145</v>
+        <v>0.8898304668992614</v>
       </c>
       <c r="G47" t="n">
-        <v>0.396255257839374</v>
+        <v>0.4063772955776537</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4397330007482491</v>
+        <v>0.5011013834758168</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3132316726116636</v>
+        <v>0.3601985492815291</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2900672852993011</v>
+        <v>0.3022217750549316</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3183724582195282</v>
+        <v>0.4088659882545471</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2293351143598557</v>
+        <v>0.3030487298965454</v>
       </c>
     </row>
     <row r="48">
@@ -2254,31 +2254,31 @@
         <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9661212121549823</v>
+        <v>0.9669491703769862</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9757021742773425</v>
+        <v>0.9669930901201912</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8817302000626781</v>
+        <v>0.8904349797032497</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4482170712949489</v>
+        <v>0.4422166524921852</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3890117903297977</v>
+        <v>0.4537833626884929</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3934611926470608</v>
+        <v>0.382034055235379</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3439725339412689</v>
+        <v>0.3358133435249329</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3146701455116272</v>
+        <v>0.3623711168766022</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3068520724773407</v>
+        <v>0.2649574875831604</v>
       </c>
     </row>
     <row r="49">
@@ -2292,31 +2292,31 @@
         <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>0.964118052422134</v>
+        <v>0.9759439941701809</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9527183403277489</v>
+        <v>0.976933670673779</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9021813295478651</v>
+        <v>0.8228223638908634</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4614522936435067</v>
+        <v>0.3811705662884131</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5382372856179931</v>
+        <v>0.3780911911281061</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3352064117382885</v>
+        <v>0.4559660341407952</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3394962549209595</v>
+        <v>0.2984574735164642</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4252302348613739</v>
+        <v>0.3147257268428802</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2514246106147766</v>
+        <v>0.3627039194107056</v>
       </c>
     </row>
     <row r="50">
@@ -2330,31 +2330,31 @@
         <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9837335496464992</v>
+        <v>0.9783084625362718</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9917806177402714</v>
+        <v>0.9855771363596988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8707790522343162</v>
+        <v>0.9101998989773976</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3111618718084505</v>
+        <v>0.3587987467580723</v>
       </c>
       <c r="H50" t="n">
-        <v>0.227758530959994</v>
+        <v>0.2993201026874946</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3909798345658506</v>
+        <v>0.329842556743912</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2287127673625946</v>
+        <v>0.2859559655189514</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1858972311019897</v>
+        <v>0.247588187456131</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3023751974105835</v>
+        <v>0.2607109546661377</v>
       </c>
     </row>
     <row r="51">
@@ -2368,31 +2368,31 @@
         <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9775084555353446</v>
+        <v>0.9711297593519119</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9889829388767667</v>
+        <v>0.9674393460575645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.823187059780319</v>
+        <v>0.8397497745455251</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3672117265866049</v>
+        <v>0.4135653552261909</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2631994182521542</v>
+        <v>0.4504185617455849</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4714838889181923</v>
+        <v>0.485722712673586</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2923475503921509</v>
+        <v>0.3117735683917999</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2087362259626389</v>
+        <v>0.3511624336242676</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4268163442611694</v>
+        <v>0.3526310920715332</v>
       </c>
     </row>
     <row r="52">
@@ -2406,31 +2406,31 @@
         <v>75</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9663714417108521</v>
+        <v>0.9535257903615766</v>
       </c>
       <c r="E52" t="n">
-        <v>0.973795880317054</v>
+        <v>0.9720957689821027</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8408603493368667</v>
+        <v>0.8789839951489422</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4459678612567139</v>
+        <v>0.525419298261707</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4034428260327558</v>
+        <v>0.4128526249688805</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4623016441125781</v>
+        <v>0.3814870894486075</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3536362051963806</v>
+        <v>0.4536123275756836</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3245428502559662</v>
+        <v>0.3498451411724091</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3439186811447144</v>
+        <v>0.3307252824306488</v>
       </c>
     </row>
     <row r="53">
@@ -2444,31 +2444,31 @@
         <v>80</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9657105761386889</v>
+        <v>0.976519609969477</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9791075628485729</v>
+        <v>0.9700944952645335</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8066873008868676</v>
+        <v>0.8477353383471213</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4510472938973589</v>
+        <v>0.3734275114247876</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3560518784655461</v>
+        <v>0.4311085351480434</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4735463014228442</v>
+        <v>0.4224460410473604</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3721944689750671</v>
+        <v>0.2836799025535583</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2806324362754822</v>
+        <v>0.3571155071258545</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3864537477493286</v>
+        <v>0.3446713387966156</v>
       </c>
     </row>
     <row r="54">
@@ -2482,31 +2482,31 @@
         <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9802488510129194</v>
+        <v>0.9670818780892093</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9783522057618139</v>
+        <v>0.94819494297572</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8984749021017425</v>
+        <v>0.8489992181215139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3432728533614282</v>
+        <v>0.4419480096481532</v>
       </c>
       <c r="H54" t="n">
-        <v>0.370126225907171</v>
+        <v>0.568517708763423</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3496339139371428</v>
+        <v>0.4487120548824499</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2642271220684052</v>
+        <v>0.3441523909568787</v>
       </c>
       <c r="K54" t="n">
-        <v>0.3072729408740997</v>
+        <v>0.4951962530612946</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2622582018375397</v>
+        <v>0.3146170377731323</v>
       </c>
     </row>
     <row r="55">
@@ -2520,31 +2520,31 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9659614965465991</v>
+        <v>0.9706368303456706</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9525003313550258</v>
+        <v>0.9825328443827357</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8635923060335167</v>
+        <v>0.8990870277746872</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4490045617356117</v>
+        <v>0.4170063740016729</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5462377377493338</v>
+        <v>0.3292587425625204</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4091113267846246</v>
+        <v>0.3458258631868441</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3322003185749054</v>
+        <v>0.3388268053531647</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4487791061401367</v>
+        <v>0.261631965637207</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3066638708114624</v>
+        <v>0.2764649987220764</v>
       </c>
     </row>
     <row r="56">
@@ -2558,31 +2558,31 @@
         <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>0.977182974249579</v>
+        <v>0.9592457804608683</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9729854556172148</v>
+        <v>0.960190464728552</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8348173310455873</v>
+        <v>0.8452024157216176</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3715018588182608</v>
+        <v>0.4928075124697458</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4130108090884324</v>
+        <v>0.4967469698223657</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4437222781051482</v>
+        <v>0.4378125232530434</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2750023305416107</v>
+        <v>0.3837416172027588</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3474108874797821</v>
+        <v>0.4057755768299103</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3303785026073456</v>
+        <v>0.3375080823898315</v>
       </c>
     </row>
     <row r="57">
@@ -2596,31 +2596,31 @@
         <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9236292928546562</v>
+        <v>0.9776531644286283</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9163023223979057</v>
+        <v>0.9854947621094552</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8313718933665939</v>
+        <v>0.9135362954673245</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6733048770890508</v>
+        <v>0.3652958537698983</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7202305265109268</v>
+        <v>0.3007927434137274</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4400535042700272</v>
+        <v>0.3193222999577169</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5250126719474792</v>
+        <v>0.2729365229606628</v>
       </c>
       <c r="K57" t="n">
-        <v>0.6096085906028748</v>
+        <v>0.2370102554559708</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3447805643081665</v>
+        <v>0.2614316642284393</v>
       </c>
     </row>
     <row r="58">
@@ -2634,31 +2634,31 @@
         <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>0.984882151607964</v>
+        <v>0.9767973757844268</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9887751181981512</v>
+        <v>0.9817464782790672</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9077134812945491</v>
+        <v>0.864993658189916</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2988937904165964</v>
+        <v>0.3712567423198622</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2626698846812523</v>
+        <v>0.3402333164308112</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3364187718783763</v>
+        <v>0.4314042561839728</v>
       </c>
       <c r="J58" t="n">
-        <v>0.22154800593853</v>
+        <v>0.2816297709941864</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2208023071289062</v>
+        <v>0.2727626860141754</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2560287415981293</v>
+        <v>0.3357775807380676</v>
       </c>
     </row>
     <row r="59">
@@ -2672,31 +2672,31 @@
         <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9484748777219346</v>
+        <v>0.9770048376237042</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9637540519227746</v>
+        <v>0.9767783230325627</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6270836836388849</v>
+        <v>0.9112515527811146</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5580725739430989</v>
+        <v>0.3695691563074396</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4720183394786924</v>
+        <v>0.3791177690157879</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6926356232039637</v>
+        <v>0.3211454632922249</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4537831544876099</v>
+        <v>0.2790084779262543</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3483441472053528</v>
+        <v>0.3342941403388977</v>
       </c>
       <c r="L59" t="n">
-        <v>0.5884853005409241</v>
+        <v>0.2427810877561569</v>
       </c>
     </row>
     <row r="60">
@@ -2710,31 +2710,31 @@
         <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9861660406062618</v>
+        <v>0.9761953911134906</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9892149185964874</v>
+        <v>0.9788036465586277</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8901022052460438</v>
+        <v>0.9022263017946989</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2868809342653592</v>
+        <v>0.3764700685131118</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2607315432772576</v>
+        <v>0.364541932434713</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3649305824346721</v>
+        <v>0.3356962779525116</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2052858769893646</v>
+        <v>0.2889412641525269</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1920805275440216</v>
+        <v>0.2967744171619415</v>
       </c>
       <c r="L60" t="n">
-        <v>0.2755779623985291</v>
+        <v>0.2635697424411774</v>
       </c>
     </row>
     <row r="61">
@@ -2748,31 +2748,31 @@
         <v>55</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9768466258636991</v>
+        <v>0.9755527062199553</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9875050219781717</v>
+        <v>0.9756666199230888</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8585548360719326</v>
+        <v>0.8284137740443531</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3717314410999609</v>
+        <v>0.3814186098564466</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2796109973980844</v>
+        <v>0.3875127213451093</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4170341738573</v>
+        <v>0.4729455267576785</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2786552309989929</v>
+        <v>0.2997917234897614</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2159232497215271</v>
+        <v>0.3312669098377228</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3445066511631012</v>
+        <v>0.3945575058460236</v>
       </c>
     </row>
     <row r="62">
@@ -2786,31 +2786,31 @@
         <v>60</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9699841264674502</v>
+        <v>0.94346724220079</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9585346254075028</v>
+        <v>0.9666664120317977</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8164087314017028</v>
+        <v>0.6392195080604497</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4234233452658689</v>
+        <v>0.5817557329240455</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5083431405804651</v>
+        <v>0.4551588158841264</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4603901862675291</v>
+        <v>0.7017736164015372</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3375877439975739</v>
+        <v>0.4898625910282135</v>
       </c>
       <c r="K62" t="n">
-        <v>0.4497841596603394</v>
+        <v>0.377189427614212</v>
       </c>
       <c r="L62" t="n">
-        <v>0.362090528011322</v>
+        <v>0.5900130867958069</v>
       </c>
     </row>
     <row r="63">
@@ -2824,31 +2824,31 @@
         <v>65</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9672112323886742</v>
+        <v>0.9694445677762025</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9676920900322794</v>
+        <v>0.9654291556339093</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8008279921328859</v>
+        <v>0.873845551171468</v>
       </c>
       <c r="G63" t="n">
-        <v>0.442393490155096</v>
+        <v>0.4255322594511255</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4474255138613595</v>
+        <v>0.4649197011495212</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4946241162022043</v>
+        <v>0.3877148371087256</v>
       </c>
       <c r="J63" t="n">
-        <v>0.356712132692337</v>
+        <v>0.3251947164535522</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3924766778945923</v>
+        <v>0.3548333644866943</v>
       </c>
       <c r="L63" t="n">
-        <v>0.4062459468841553</v>
+        <v>0.3027628660202026</v>
       </c>
     </row>
     <row r="64">
@@ -2862,31 +2862,31 @@
         <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9766687855849524</v>
+        <v>0.9670122512997549</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9828189972884797</v>
+        <v>0.9514849921114036</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9163138606144178</v>
+        <v>0.8741930258364512</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3714577746569843</v>
+        <v>0.4429457663573056</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3280068934278842</v>
+        <v>0.5511856488318847</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3212602016855234</v>
+        <v>0.3878040113296228</v>
       </c>
       <c r="J64" t="n">
-        <v>0.283139169216156</v>
+        <v>0.3257497549057007</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2551625967025757</v>
+        <v>0.4235941767692566</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2491945177316666</v>
+        <v>0.2966180443763733</v>
       </c>
     </row>
     <row r="65">
@@ -2900,31 +2900,31 @@
         <v>75</v>
       </c>
       <c r="D65" t="n">
-        <v>0.972263749656226</v>
+        <v>0.9746926631713252</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9880076456023327</v>
+        <v>0.9887493571682363</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8023511706021306</v>
+        <v>0.8477584772298904</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4092010638131813</v>
+        <v>0.387746101338889</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2732359143096692</v>
+        <v>0.2627081176586511</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4961580400035188</v>
+        <v>0.4194736483791707</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3359346389770508</v>
+        <v>0.3138009905815125</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2407079488039017</v>
+        <v>0.2251126617193222</v>
       </c>
       <c r="L65" t="n">
-        <v>0.4166770577430725</v>
+        <v>0.3567298948764801</v>
       </c>
     </row>
     <row r="66">
@@ -2938,31 +2938,31 @@
         <v>80</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9405172424548979</v>
+        <v>0.9712109668179721</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9425887556176042</v>
+        <v>0.969059718217354</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8119072728600387</v>
+        <v>0.8729663535589216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.593608914729099</v>
+        <v>0.4136935515663522</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5984860064417045</v>
+        <v>0.441417643307184</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4714142267590997</v>
+        <v>0.3905292393609048</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4738042056560516</v>
+        <v>0.3273237645626068</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4823512434959412</v>
+        <v>0.3682637512683868</v>
       </c>
       <c r="L66" t="n">
-        <v>0.3676084578037262</v>
+        <v>0.3001262545585632</v>
       </c>
     </row>
     <row r="67">
@@ -2976,31 +2976,31 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9550833527962777</v>
+        <v>0.9767428632343387</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9333848251706278</v>
+        <v>0.9824166692816078</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8866927394346772</v>
+        <v>0.833527640778697</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5161102496936008</v>
+        <v>0.3743064944743638</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6456886765282206</v>
+        <v>0.3292991429948819</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3970496559305385</v>
+        <v>0.456122350472313</v>
       </c>
       <c r="J67" t="n">
-        <v>0.406887412071228</v>
+        <v>0.285485178232193</v>
       </c>
       <c r="K67" t="n">
-        <v>0.541986346244812</v>
+        <v>0.2811565399169922</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2891501188278198</v>
+        <v>0.3553350567817688</v>
       </c>
     </row>
     <row r="68">
@@ -3014,31 +3014,31 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9820637727184484</v>
+        <v>0.969397635077249</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9870223980100871</v>
+        <v>0.9675294506050903</v>
       </c>
       <c r="F68" t="n">
-        <v>0.884199826829914</v>
+        <v>0.8967306559694629</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3271218474101013</v>
+        <v>0.4264178111017697</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2859638222841038</v>
+        <v>0.4513301654259119</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3709168865964831</v>
+        <v>0.3506835334117033</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2482263445854187</v>
+        <v>0.3093605041503906</v>
       </c>
       <c r="K68" t="n">
-        <v>0.227068692445755</v>
+        <v>0.368988960981369</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2774282395839691</v>
+        <v>0.2788383960723877</v>
       </c>
     </row>
     <row r="69">
@@ -3052,31 +3052,31 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9748704181192419</v>
+        <v>0.9700270056707616</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9774337352034337</v>
+        <v>0.9759941319858706</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8821560341741022</v>
+        <v>0.8141303272069857</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3882917913161131</v>
+        <v>0.425334853902902</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3749491140490701</v>
+        <v>0.3865316497099965</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3811171417439613</v>
+        <v>0.4708752930632414</v>
       </c>
       <c r="J69" t="n">
-        <v>0.287575900554657</v>
+        <v>0.3369724452495575</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2993941009044647</v>
+        <v>0.3451424837112427</v>
       </c>
       <c r="L69" t="n">
-        <v>0.298118382692337</v>
+        <v>0.3770761489868164</v>
       </c>
     </row>
     <row r="70">
@@ -3090,31 +3090,31 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9604877898899774</v>
+        <v>0.9701816312483672</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9468716762878147</v>
+        <v>0.9766003260462993</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8670165698069604</v>
+        <v>0.8750547302190637</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4838325477864854</v>
+        <v>0.4208191976281949</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5776972090068168</v>
+        <v>0.3805951693704381</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4001131724653618</v>
+        <v>0.3902547989427412</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3479803800582886</v>
+        <v>0.3338448405265808</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4329633712768555</v>
+        <v>0.3153311312198639</v>
       </c>
       <c r="L70" t="n">
-        <v>0.3048129975795746</v>
+        <v>0.3102230727672577</v>
       </c>
     </row>
     <row r="71">
@@ -3128,31 +3128,31 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9097688516219499</v>
+        <v>0.9543594102508461</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9033825778785256</v>
+        <v>0.9422249444054854</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6798235819893548</v>
+        <v>0.8359722093656313</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7301596329176168</v>
+        <v>0.5211571799224958</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7762294815103655</v>
+        <v>0.5996632505188451</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6168343463167195</v>
+        <v>0.4429099371887222</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5860239863395691</v>
+        <v>0.4193856120109558</v>
       </c>
       <c r="K71" t="n">
-        <v>0.6608495712280273</v>
+        <v>0.4977640807628632</v>
       </c>
       <c r="L71" t="n">
-        <v>0.4765040576457977</v>
+        <v>0.3434051275253296</v>
       </c>
     </row>
     <row r="72">
@@ -3166,31 +3166,31 @@
         <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9696746534454811</v>
+        <v>0.9706025465931246</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9815647028297876</v>
+        <v>0.9625990816770257</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8010407503001934</v>
+        <v>0.7897503220201407</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4284002094748686</v>
+        <v>0.4204283742468587</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3410908955704923</v>
+        <v>0.4876671706189654</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4925707581322381</v>
+        <v>0.5089541001000051</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3432766497135162</v>
+        <v>0.3176145255565643</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2657311260700226</v>
+        <v>0.3786451518535614</v>
       </c>
       <c r="L72" t="n">
-        <v>0.4302885234355927</v>
+        <v>0.4267961382865906</v>
       </c>
     </row>
     <row r="73">
@@ -3204,31 +3204,31 @@
         <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9738965672992494</v>
+        <v>0.9786837345130448</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9690016036848991</v>
+        <v>0.9835958308689726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8822101793407229</v>
+        <v>0.9238302354463492</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3934480697811849</v>
+        <v>0.3559021456126153</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4419913507269045</v>
+        <v>0.3204974129225749</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3964679507908013</v>
+        <v>0.3004845852976348</v>
       </c>
       <c r="J73" t="n">
-        <v>0.306854248046875</v>
+        <v>0.2708928883075714</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3654024004936218</v>
+        <v>0.2608703374862671</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2832541167736053</v>
+        <v>0.2357343137264252</v>
       </c>
     </row>
     <row r="74">
@@ -3242,31 +3242,31 @@
         <v>55</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9727761289840821</v>
+        <v>0.9849056225723245</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9759134275710947</v>
+        <v>0.9853752360021935</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8898595838893338</v>
+        <v>0.9369452061244934</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4020844892705928</v>
+        <v>0.2988531314135642</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3868596176824005</v>
+        <v>0.3021761762515173</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3657187040189277</v>
+        <v>0.2768379084755251</v>
       </c>
       <c r="J74" t="n">
-        <v>0.3116960525512695</v>
+        <v>0.215857595205307</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3069464862346649</v>
+        <v>0.23309026658535</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2889924943447113</v>
+        <v>0.1973756402730942</v>
       </c>
     </row>
     <row r="75">
@@ -3280,31 +3280,31 @@
         <v>60</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9819340606605471</v>
+        <v>0.9823394229719821</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9826545943100587</v>
+        <v>0.9870927716485329</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9173928092082713</v>
+        <v>0.8837599801890877</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3270408909083307</v>
+        <v>0.3243749311296393</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3296890109601583</v>
+        <v>0.2846889455404755</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3149131939693919</v>
+        <v>0.3712946297891885</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2439365237951279</v>
+        <v>0.246576800942421</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2734101116657257</v>
+        <v>0.2090485543012619</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2272087186574936</v>
+        <v>0.2806383073329926</v>
       </c>
     </row>
     <row r="76">
@@ -3318,31 +3318,31 @@
         <v>65</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9785016310879868</v>
+        <v>0.9781317711255217</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9895541403245255</v>
+        <v>0.9880597877031947</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8985587965068306</v>
+        <v>0.8119909284727223</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3565850597937691</v>
+        <v>0.3631378629182276</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2562617130626395</v>
+        <v>0.2735671008740447</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3604753689929193</v>
+        <v>0.481354277323969</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2767852246761322</v>
+        <v>0.284185916185379</v>
       </c>
       <c r="K76" t="n">
-        <v>0.208212673664093</v>
+        <v>0.2276155650615692</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2754395008087158</v>
+        <v>0.387710303068161</v>
       </c>
     </row>
     <row r="77">
@@ -3356,31 +3356,31 @@
         <v>70</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9715746355622159</v>
+        <v>0.975941806246162</v>
       </c>
       <c r="E77" t="n">
-        <v>0.970229391813185</v>
+        <v>0.9794046425692261</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8585934933134611</v>
+        <v>0.8574262739627285</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4123594600955942</v>
+        <v>0.3781355462298108</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4310958151302945</v>
+        <v>0.3578869446517549</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4296414437320021</v>
+        <v>0.4274419891304642</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3163723349571228</v>
+        <v>0.2959322333335876</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3463962078094482</v>
+        <v>0.2725284099578857</v>
       </c>
       <c r="L77" t="n">
-        <v>0.3584944605827332</v>
+        <v>0.3423278033733368</v>
       </c>
     </row>
     <row r="78">
@@ -3394,31 +3394,31 @@
         <v>75</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9705201111852803</v>
+        <v>0.9546052112969388</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9755911721620121</v>
+        <v>0.9619766171096553</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8133899869518795</v>
+        <v>0.8946975963356493</v>
       </c>
       <c r="G78" t="n">
-        <v>0.420950618615938</v>
+        <v>0.5178991509767399</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3885874249135666</v>
+        <v>0.4804183189162962</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4839093831410163</v>
+        <v>0.3549191554454655</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3274538218975067</v>
+        <v>0.3891302049160004</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2959509193897247</v>
+        <v>0.3606586754322052</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4016234874725342</v>
+        <v>0.2922300398349762</v>
       </c>
     </row>
     <row r="79">
@@ -3432,31 +3432,31 @@
         <v>80</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9801879581102969</v>
+        <v>0.9773880148862968</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9831617198290504</v>
+        <v>0.970220534993306</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8563206847119447</v>
+        <v>0.877928615824827</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3454724743908453</v>
+        <v>0.3672805830476304</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3236420799866889</v>
+        <v>0.4316783733173595</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4250754885389319</v>
+        <v>0.381009253330702</v>
       </c>
       <c r="J79" t="n">
-        <v>0.268419474363327</v>
+        <v>0.2818875014781952</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2711858153343201</v>
+        <v>0.3631779849529266</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3083169460296631</v>
+        <v>0.2882804870605469</v>
       </c>
     </row>
     <row r="80">
@@ -3470,31 +3470,31 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9601801419108599</v>
+        <v>0.9607983948037845</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9451585330988052</v>
+        <v>0.97215595747272</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8855698870638389</v>
+        <v>0.8063773608368796</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4857351525767054</v>
+        <v>0.4842776385254683</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5795919262431654</v>
+        <v>0.4151385199364834</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3715599344227528</v>
+        <v>0.5054900540751575</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3748763203620911</v>
+        <v>0.3886189162731171</v>
       </c>
       <c r="K80" t="n">
-        <v>0.4669533967971802</v>
+        <v>0.3380776643753052</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2872155904769897</v>
+        <v>0.399152934551239</v>
       </c>
     </row>
     <row r="81">
@@ -3508,31 +3508,31 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9349855871226989</v>
+        <v>0.9740455955297771</v>
       </c>
       <c r="E81" t="n">
-        <v>0.932098868425798</v>
+        <v>0.970377170430974</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8249802483638742</v>
+        <v>0.9114920825608653</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6200002004253925</v>
+        <v>0.3923688112289154</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6478838797815794</v>
+        <v>0.4315212827000049</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4536597943557403</v>
+        <v>0.3285765832869095</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5086309313774109</v>
+        <v>0.3091439604759216</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5326193571090698</v>
+        <v>0.3585404455661774</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3636194467544556</v>
+        <v>0.2413967549800873</v>
       </c>
     </row>
     <row r="82">
@@ -3546,31 +3546,31 @@
         <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9739928615765446</v>
+        <v>0.9416944266962052</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9726592756120748</v>
+        <v>0.9450242137222713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9020843866766025</v>
+        <v>0.6797430649714028</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3921758384034676</v>
+        <v>0.5919456420844355</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4076586473306016</v>
+        <v>0.5849100896423254</v>
       </c>
       <c r="I82" t="n">
-        <v>0.342042921606903</v>
+        <v>0.655673545880181</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2927256524562836</v>
+        <v>0.486101895570755</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3031085133552551</v>
+        <v>0.4579644501209259</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2512482702732086</v>
+        <v>0.5199276804924011</v>
       </c>
     </row>
     <row r="83">
@@ -3584,31 +3584,31 @@
         <v>35</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9680447801700829</v>
+        <v>0.9838406655998856</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9530779004367443</v>
+        <v>0.9937460421170415</v>
       </c>
       <c r="F83" t="n">
-        <v>0.871153213517698</v>
+        <v>0.9042560910213184</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4352235492050827</v>
+        <v>0.3101392265663828</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5408757163145093</v>
+        <v>0.1993175056124417</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4127105016842371</v>
+        <v>0.3368433007275255</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3259095847606659</v>
+        <v>0.2439261376857758</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4590091705322266</v>
+        <v>0.1556860506534576</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2962241470813751</v>
+        <v>0.2657375335693359</v>
       </c>
     </row>
     <row r="84">
@@ -3622,31 +3622,31 @@
         <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9656751341863368</v>
+        <v>0.9481616116677112</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9515646529685353</v>
+        <v>0.9319642228871029</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8422504273843687</v>
+        <v>0.8345932035182101</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4531463585127776</v>
+        <v>0.5543936636190393</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5519882666111338</v>
+        <v>0.6521914869770599</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4367824187297568</v>
+        <v>0.4515880795265952</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3522669970989227</v>
+        <v>0.433809220790863</v>
       </c>
       <c r="K84" t="n">
-        <v>0.4520509541034698</v>
+        <v>0.571045458316803</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3400898873806</v>
+        <v>0.3608564436435699</v>
       </c>
     </row>
     <row r="85">
@@ -3660,31 +3660,31 @@
         <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9676904811377226</v>
+        <v>0.9692744871104884</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9569441625976864</v>
+        <v>0.9558504714424144</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8589059133027845</v>
+        <v>0.8439440130220531</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4389863650739687</v>
+        <v>0.4287622025757993</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5155591344669188</v>
+        <v>0.5246762378658576</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4141471704247516</v>
+        <v>0.4395849581171655</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3492207527160645</v>
+        <v>0.3282636106014252</v>
       </c>
       <c r="K85" t="n">
-        <v>0.4129327535629272</v>
+        <v>0.4519008696079254</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3215040266513824</v>
+        <v>0.32491534948349</v>
       </c>
     </row>
     <row r="86">
@@ -3698,31 +3698,31 @@
         <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9625024782814361</v>
+        <v>0.9658595719905045</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9707773489900509</v>
+        <v>0.9525149997110702</v>
       </c>
       <c r="F86" t="n">
-        <v>0.804502845018334</v>
+        <v>0.8844048505876142</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4727932439842594</v>
+        <v>0.4501028234839473</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4267294588424923</v>
+        <v>0.5449624268677764</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5066355049856942</v>
+        <v>0.3723999925750154</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3487436771392822</v>
+        <v>0.3442534208297729</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3256370723247528</v>
+        <v>0.4536803364753723</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4260036647319794</v>
+        <v>0.2680138945579529</v>
       </c>
     </row>
     <row r="87">
@@ -3736,31 +3736,31 @@
         <v>55</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9642073904674129</v>
+        <v>0.9784671918721608</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9535602603940878</v>
+        <v>0.9841254044002961</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8991967798585161</v>
+        <v>0.8572546924199125</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4600659876119753</v>
+        <v>0.3590286493239573</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5392938200504759</v>
+        <v>0.3126910698416417</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3491809606907651</v>
+        <v>0.4175797550751261</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3542037606239319</v>
+        <v>0.278012752532959</v>
       </c>
       <c r="K87" t="n">
-        <v>0.390271008014679</v>
+        <v>0.2574789226055145</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2599160075187683</v>
+        <v>0.3624111115932465</v>
       </c>
     </row>
     <row r="88">
@@ -3774,31 +3774,31 @@
         <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9665399980640585</v>
+        <v>0.9814396600506312</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9725192648842861</v>
+        <v>0.9902871382155072</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7994407864674061</v>
+        <v>0.8046281774246971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4479774574309032</v>
+        <v>0.3331856686132644</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4131914729947368</v>
+        <v>0.2450194068808029</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5202515277134372</v>
+        <v>0.5151226312961932</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3787307739257812</v>
+        <v>0.2518393695354462</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3450145423412323</v>
+        <v>0.1946813315153122</v>
       </c>
       <c r="L88" t="n">
-        <v>0.436883419752121</v>
+        <v>0.4325386881828308</v>
       </c>
     </row>
     <row r="89">
@@ -3812,31 +3812,31 @@
         <v>65</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9719813221667408</v>
+        <v>0.9715840333168552</v>
       </c>
       <c r="E89" t="n">
-        <v>0.969740891535966</v>
+        <v>0.9642013403958495</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8581335451004477</v>
+        <v>0.9140704200796149</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4100508963291013</v>
+        <v>0.4098583229315825</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4339923744597484</v>
+        <v>0.4752210278496906</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4108105118792068</v>
+        <v>0.3252821110539836</v>
       </c>
       <c r="J89" t="n">
-        <v>0.325590193271637</v>
+        <v>0.3076736330986023</v>
       </c>
       <c r="K89" t="n">
-        <v>0.376909613609314</v>
+        <v>0.4033371210098267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3106365501880646</v>
+        <v>0.2451473772525787</v>
       </c>
     </row>
     <row r="90">
@@ -3850,31 +3850,31 @@
         <v>70</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9824793713633635</v>
+        <v>0.9703680671353033</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9910252264059949</v>
+        <v>0.9721976948298624</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9075533743679556</v>
+        <v>0.7880341045835128</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3223909192283366</v>
+        <v>0.4219451068977333</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2381482222014575</v>
+        <v>0.4155026528254263</v>
       </c>
       <c r="I90" t="n">
-        <v>0.32881316047853</v>
+        <v>0.5099457754966095</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2459135353565216</v>
+        <v>0.3308147490024567</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1927463263273239</v>
+        <v>0.350626528263092</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2645701169967651</v>
+        <v>0.4401998519897461</v>
       </c>
     </row>
     <row r="91">
@@ -3888,31 +3888,31 @@
         <v>75</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9717130177996227</v>
+        <v>0.9656050853052361</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9847879081724855</v>
+        <v>0.9588595045424636</v>
       </c>
       <c r="F91" t="n">
-        <v>0.825963169734153</v>
+        <v>0.8744218541751632</v>
       </c>
       <c r="G91" t="n">
-        <v>0.413497935784664</v>
+        <v>0.452558607421074</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3072072400748342</v>
+        <v>0.5088368867447485</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4525705760376935</v>
+        <v>0.3885394498576042</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3219515383243561</v>
+        <v>0.3606244027614594</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2267203330993652</v>
+        <v>0.388422042131424</v>
       </c>
       <c r="L91" t="n">
-        <v>0.4018899500370026</v>
+        <v>0.3150394260883331</v>
       </c>
     </row>
     <row r="92">
@@ -3926,31 +3926,31 @@
         <v>80</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9442542433625406</v>
+        <v>0.9777029751821741</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9651029669590828</v>
+        <v>0.9783789692880275</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5926822514796288</v>
+        <v>0.8506555218552535</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5771017814148011</v>
+        <v>0.3639272258408246</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4646411903204216</v>
+        <v>0.3670668708207181</v>
       </c>
       <c r="I92" t="n">
-        <v>0.709881049991385</v>
+        <v>0.4413137592199924</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4761722385883331</v>
+        <v>0.2800476253032684</v>
       </c>
       <c r="K92" t="n">
-        <v>0.3833817839622498</v>
+        <v>0.2946271896362305</v>
       </c>
       <c r="L92" t="n">
-        <v>0.6044879555702209</v>
+        <v>0.340049684047699</v>
       </c>
     </row>
     <row r="93">
@@ -3964,31 +3964,31 @@
         <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9844756200168191</v>
+        <v>0.9356650082106223</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9804131612337992</v>
+        <v>0.9662547139612525</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8888500371429224</v>
+        <v>0.7315839350627847</v>
       </c>
       <c r="G93" t="n">
-        <v>0.304167095221039</v>
+        <v>0.6194825777462709</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3482310333433946</v>
+        <v>0.4559298718228088</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3589109243936351</v>
+        <v>0.6051365340862677</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2126544713973999</v>
+        <v>0.5216130614280701</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2939232587814331</v>
+        <v>0.3785198926925659</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2649726867675781</v>
+        <v>0.4719079732894897</v>
       </c>
     </row>
     <row r="94">
@@ -4002,31 +4002,31 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9630372488371585</v>
+        <v>0.9727582483455761</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9480368387406736</v>
+        <v>0.9850158523691407</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8811204445362062</v>
+        <v>0.9037680884575681</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4681384229581825</v>
+        <v>0.4024142046230539</v>
       </c>
       <c r="H94" t="n">
-        <v>0.568291492930986</v>
+        <v>0.3047291164831512</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3790439473492014</v>
+        <v>0.3443057920661491</v>
       </c>
       <c r="J94" t="n">
-        <v>0.351790577173233</v>
+        <v>0.3189130425453186</v>
       </c>
       <c r="K94" t="n">
-        <v>0.4409276247024536</v>
+        <v>0.2476666271686554</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3067802786827087</v>
+        <v>0.2648293077945709</v>
       </c>
     </row>
     <row r="95">
@@ -4040,31 +4040,31 @@
         <v>30</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9769453495931314</v>
+        <v>0.9657904505152328</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9863478158902313</v>
+        <v>0.9659625493389498</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8591350627126484</v>
+        <v>0.9003500883758712</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3706920457315872</v>
+        <v>0.4499261841896338</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2931257208874262</v>
+        <v>0.4584193221260738</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4101234059580409</v>
+        <v>0.3546819467992088</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2714436650276184</v>
+        <v>0.3433982133865356</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2162763476371765</v>
+        <v>0.4014856219291687</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3486852645874023</v>
+        <v>0.2728720307350159</v>
       </c>
     </row>
     <row r="96">
@@ -4078,31 +4078,31 @@
         <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9655634081532535</v>
+        <v>0.9750243322738831</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9852110390503306</v>
+        <v>0.9661071843261444</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7779218132105051</v>
+        <v>0.8927729811929188</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4552212273221365</v>
+        <v>0.3853222069673904</v>
       </c>
       <c r="H96" t="n">
-        <v>0.302961338241754</v>
+        <v>0.4607522398210666</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5286475840822993</v>
+        <v>0.3547866271051756</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3900019526481628</v>
+        <v>0.299296647310257</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2531599700450897</v>
+        <v>0.3976969718933105</v>
       </c>
       <c r="L96" t="n">
-        <v>0.4626997411251068</v>
+        <v>0.2666283845901489</v>
       </c>
     </row>
     <row r="97">
@@ -4116,31 +4116,31 @@
         <v>40</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9577514660874377</v>
+        <v>0.9332994951085487</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9458015562885682</v>
+        <v>0.9383141473759099</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8272913762706027</v>
+        <v>0.8626135242107107</v>
       </c>
       <c r="G97" t="n">
-        <v>0.503076180168625</v>
+        <v>0.6291929503712838</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5823503681909133</v>
+        <v>0.6172197792207265</v>
       </c>
       <c r="I97" t="n">
-        <v>0.4583239247338964</v>
+        <v>0.4028665608721452</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3995544612407684</v>
+        <v>0.5020983219146729</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4946480393409729</v>
+        <v>0.4910952746868134</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3391118049621582</v>
+        <v>0.3488155007362366</v>
       </c>
     </row>
     <row r="98">
@@ -4154,31 +4154,31 @@
         <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9702311911025234</v>
+        <v>0.8940462082088849</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9800209925920683</v>
+        <v>0.90788069066715</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8512999239348155</v>
+        <v>0.6953202570679763</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4220510751134571</v>
+        <v>0.7942609734261961</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3508332318062685</v>
+        <v>0.7567040506936322</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4357094910176926</v>
+        <v>0.6250226016726304</v>
       </c>
       <c r="J98" t="n">
-        <v>0.3353052735328674</v>
+        <v>0.6232455968856812</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2855282425880432</v>
+        <v>0.5392040014266968</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3473019301891327</v>
+        <v>0.5408308506011963</v>
       </c>
     </row>
     <row r="99">
@@ -4192,31 +4192,31 @@
         <v>50</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9666763144328189</v>
+        <v>0.959167528656911</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9500652245819312</v>
+        <v>0.9788169844862892</v>
       </c>
       <c r="F99" t="n">
-        <v>0.86649521975892</v>
+        <v>0.8088976654911869</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4443854503502667</v>
+        <v>0.4936616559003998</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5563925474729767</v>
+        <v>0.3590253912372741</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4065844919412728</v>
+        <v>0.4852780107916612</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3425222635269165</v>
+        <v>0.3921194076538086</v>
       </c>
       <c r="K99" t="n">
-        <v>0.4974856674671173</v>
+        <v>0.2709980905056</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3028416335582733</v>
+        <v>0.4153981804847717</v>
       </c>
     </row>
     <row r="100">
@@ -4230,31 +4230,31 @@
         <v>55</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9733291539129119</v>
+        <v>0.9536801638516639</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9716360586711035</v>
+        <v>0.9359846686972879</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8016258258028197</v>
+        <v>0.9117853030580801</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4005655976352921</v>
+        <v>0.5233419530405687</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4196552228410118</v>
+        <v>0.6310517339657965</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4935496418690882</v>
+        <v>0.320179958368616</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3037422895431519</v>
+        <v>0.3999562561511993</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3447035253047943</v>
+        <v>0.4813877642154694</v>
       </c>
       <c r="L100" t="n">
-        <v>0.4411415159702301</v>
+        <v>0.237168475985527</v>
       </c>
     </row>
     <row r="101">
@@ -4268,31 +4268,31 @@
         <v>60</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9493620192942916</v>
+        <v>0.9484077441709098</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9443413730939484</v>
+        <v>0.9375590515623978</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8881549387541929</v>
+        <v>0.8678147387267109</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5478062194446783</v>
+        <v>0.5547783468292226</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5884026107128529</v>
+        <v>0.6235584084425413</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3610341706390176</v>
+        <v>0.4006854762703214</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4138717353343964</v>
+        <v>0.4258666336536407</v>
       </c>
       <c r="K101" t="n">
-        <v>0.4748063981533051</v>
+        <v>0.5078420639038086</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2857419550418854</v>
+        <v>0.3084959387779236</v>
       </c>
     </row>
     <row r="102">
@@ -4306,31 +4306,31 @@
         <v>65</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9702960264447985</v>
+        <v>0.9669443492529903</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9696857295340549</v>
+        <v>0.9575077422253804</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8827981273034882</v>
+        <v>0.842829426113394</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4206422880454498</v>
+        <v>0.4425854755542022</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4352706923060602</v>
+        <v>0.5145176933163824</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3693131341455876</v>
+        <v>0.4465580636638996</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3304343223571777</v>
+        <v>0.3483005464076996</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3579915165901184</v>
+        <v>0.4286156296730042</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2782310545444489</v>
+        <v>0.3353179395198822</v>
       </c>
     </row>
     <row r="103">
@@ -4344,31 +4344,31 @@
         <v>70</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9710166869632828</v>
+        <v>0.966733701776667</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9616411573805528</v>
+        <v>0.9538858966422804</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8708064644175395</v>
+        <v>0.9024217085818547</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4165587841878401</v>
+        <v>0.4443610048035141</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4906432130190832</v>
+        <v>0.53694899505399</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3937828784415809</v>
+        <v>0.3374071245089404</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3121708333492279</v>
+        <v>0.3429482579231262</v>
       </c>
       <c r="K103" t="n">
-        <v>0.3965926766395569</v>
+        <v>0.4266785979270935</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3065049648284912</v>
+        <v>0.2676887512207031</v>
       </c>
     </row>
     <row r="104">
@@ -4382,31 +4382,31 @@
         <v>75</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9673772117067025</v>
+        <v>0.9610876330180249</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9819144927718233</v>
+        <v>0.9559602946456759</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8321439838237831</v>
+        <v>0.8886502900532329</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4414543024424854</v>
+        <v>0.4814680453924398</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3348034302097382</v>
+        <v>0.5199801864425523</v>
       </c>
       <c r="I104" t="n">
-        <v>0.454321071934857</v>
+        <v>0.3733448615948062</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3709351122379303</v>
+        <v>0.3546908795833588</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2723905742168427</v>
+        <v>0.3496575653553009</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3758666515350342</v>
+        <v>0.2749206125736237</v>
       </c>
     </row>
     <row r="105">
@@ -4420,31 +4420,31 @@
         <v>80</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9644045449058735</v>
+        <v>0.9817891883892396</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9644071946568433</v>
+        <v>0.9906793850338134</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8673120776561386</v>
+        <v>0.9048685639371362</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4603950411981089</v>
+        <v>0.3283527469442558</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4693311744222829</v>
+        <v>0.2409836783481598</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4157939732327648</v>
+        <v>0.3424040605531271</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3565421104431152</v>
+        <v>0.2559559345245361</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3752187788486481</v>
+        <v>0.1793703734874725</v>
       </c>
       <c r="L105" t="n">
-        <v>0.3321430683135986</v>
+        <v>0.2679401636123657</v>
       </c>
     </row>
     <row r="106">
@@ -4458,31 +4458,31 @@
         <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9536630482080604</v>
+        <v>0.9856817865387371</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9603898226336985</v>
+        <v>0.9875742381544813</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8513747937385809</v>
+        <v>0.909134612311608</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5242807797886125</v>
+        <v>0.2908611015373093</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4936403901325363</v>
+        <v>0.2782739834958556</v>
       </c>
       <c r="I106" t="n">
-        <v>0.4349985819826362</v>
+        <v>0.3351122900670225</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4124678373336792</v>
+        <v>0.205340102314949</v>
       </c>
       <c r="K106" t="n">
-        <v>0.4214630126953125</v>
+        <v>0.2356176376342773</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3456193506717682</v>
+        <v>0.2379134893417358</v>
       </c>
     </row>
     <row r="107">
@@ -4496,31 +4496,31 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9430433640508321</v>
+        <v>0.9586302724583595</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9367238580015931</v>
+        <v>0.9542277468571223</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8271673429873039</v>
+        <v>0.8866962795279122</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5819675743551219</v>
+        <v>0.4956223358140417</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6296300809820693</v>
+        <v>0.5338317184070492</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4734701604876892</v>
+        <v>0.3733043880325329</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4767925441265106</v>
+        <v>0.383931964635849</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5190361142158508</v>
+        <v>0.404388427734375</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3530851900577545</v>
+        <v>0.2866141498088837</v>
       </c>
     </row>
     <row r="108">
@@ -4534,31 +4534,31 @@
         <v>30</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9798706865649023</v>
+        <v>0.9471049073867355</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9826525224048099</v>
+        <v>0.9401219159445524</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8633251044908747</v>
+        <v>0.812711242525433</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3477332962043396</v>
+        <v>0.5603710789437997</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3302487603820534</v>
+        <v>0.610770461718356</v>
       </c>
       <c r="I108" t="n">
-        <v>0.4159032822197161</v>
+        <v>0.4942789148112853</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2633041739463806</v>
+        <v>0.4332998991012573</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2626665532588959</v>
+        <v>0.4859976470470428</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3413213491439819</v>
+        <v>0.3831737041473389</v>
       </c>
     </row>
     <row r="109">
@@ -4572,31 +4572,31 @@
         <v>35</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9737411629273472</v>
+        <v>0.96974977080336</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9703562234591184</v>
+        <v>0.9779205516729166</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8693307493603518</v>
+        <v>0.8517718948508841</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3963689401139903</v>
+        <v>0.4236831768764646</v>
       </c>
       <c r="H109" t="n">
-        <v>0.430820289699669</v>
+        <v>0.3697268760587125</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3936675598489436</v>
+        <v>0.4271091786759705</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3011627793312073</v>
+        <v>0.3068939447402954</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3381960988044739</v>
+        <v>0.2770812809467316</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2953338921070099</v>
+        <v>0.3510622680187225</v>
       </c>
     </row>
     <row r="110">
@@ -4610,31 +4610,31 @@
         <v>40</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9460072330918239</v>
+        <v>0.9693177532156937</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9227741712103318</v>
+        <v>0.9679038184925481</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8781311361373778</v>
+        <v>0.7893233083082478</v>
       </c>
       <c r="G110" t="n">
-        <v>0.565216129538394</v>
+        <v>0.4282743798991892</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6948190073660965</v>
+        <v>0.4472207958960182</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3803051167808164</v>
+        <v>0.5321824921726833</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4157915413379669</v>
+        <v>0.3306860327720642</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5174341797828674</v>
+        <v>0.3500978052616119</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3084315359592438</v>
+        <v>0.4084484875202179</v>
       </c>
     </row>
     <row r="111">
@@ -4648,31 +4648,31 @@
         <v>45</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9614641623910544</v>
+        <v>0.9788211056054411</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9633836894414343</v>
+        <v>0.9824657916509699</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8289230807741609</v>
+        <v>0.8794267633633666</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4802787839414315</v>
+        <v>0.3546351835343742</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4798081827102385</v>
+        <v>0.3308234743639905</v>
       </c>
       <c r="I111" t="n">
-        <v>0.4749063418308517</v>
+        <v>0.3912191450121748</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3876802325248718</v>
+        <v>0.2648855745792389</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3899041712284088</v>
+        <v>0.2588875591754913</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3484229445457458</v>
+        <v>0.324140876531601</v>
       </c>
     </row>
     <row r="112">
@@ -4686,31 +4686,31 @@
         <v>50</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9604108677342833</v>
+        <v>0.9629023945008498</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9775791536581335</v>
+        <v>0.9604040788917554</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7754419586855237</v>
+        <v>0.8756140346788814</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4875119978088576</v>
+        <v>0.4693454298566797</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3716153544698875</v>
+        <v>0.496984733004538</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5332436738298451</v>
+        <v>0.3909081005382291</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4042548537254333</v>
+        <v>0.3664093315601349</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3077494502067566</v>
+        <v>0.4269965589046478</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4729145765304565</v>
+        <v>0.3114365637302399</v>
       </c>
     </row>
     <row r="113">
@@ -4724,31 +4724,31 @@
         <v>55</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9593345818297103</v>
+        <v>0.9687700742557366</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9544123446051234</v>
+        <v>0.9617392692589148</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9025108354985312</v>
+        <v>0.9246191425108903</v>
       </c>
       <c r="G113" t="n">
-        <v>0.491098455515161</v>
+        <v>0.4295554565069801</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5343870496227899</v>
+        <v>0.4870795760106342</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3429013309819491</v>
+        <v>0.2983614699896223</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3624371290206909</v>
+        <v>0.3233992159366608</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3622904717922211</v>
+        <v>0.3965810239315033</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2674337327480316</v>
+        <v>0.2218949794769287</v>
       </c>
     </row>
     <row r="114">
@@ -4762,31 +4762,31 @@
         <v>60</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9768112630636997</v>
+        <v>0.9691518913036219</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9786377445326532</v>
+        <v>0.9612617622529954</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8684951791467355</v>
+        <v>0.917937554670619</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3720283584770744</v>
+        <v>0.4269972943269383</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3644233920448463</v>
+        <v>0.4934424492730929</v>
       </c>
       <c r="I114" t="n">
-        <v>0.389118379004127</v>
+        <v>0.3189974983350426</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2968883216381073</v>
+        <v>0.3258557617664337</v>
       </c>
       <c r="K114" t="n">
-        <v>0.3066545426845551</v>
+        <v>0.3876268565654755</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3004311919212341</v>
+        <v>0.2534170150756836</v>
       </c>
     </row>
     <row r="115">
@@ -4800,31 +4800,31 @@
         <v>65</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9425324777442329</v>
+        <v>0.9767253502483131</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9111376123541104</v>
+        <v>0.9714410978104686</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8828882135146082</v>
+        <v>0.925639452178099</v>
       </c>
       <c r="G115" t="n">
-        <v>0.582761754135473</v>
+        <v>0.3709982096508043</v>
       </c>
       <c r="H115" t="n">
-        <v>0.7446778128150366</v>
+        <v>0.4227540606355022</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3842731751890821</v>
+        <v>0.3015211714456673</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4439173340797424</v>
+        <v>0.2709927558898926</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5936955809593201</v>
+        <v>0.351338803768158</v>
       </c>
       <c r="L115" t="n">
-        <v>0.291580468416214</v>
+        <v>0.2344584912061691</v>
       </c>
     </row>
     <row r="116">
@@ -4838,31 +4838,31 @@
         <v>70</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9720805558268828</v>
+        <v>0.9583662302923288</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9845451728390674</v>
+        <v>0.9504610218595853</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9152339348569355</v>
+        <v>0.8878044008250043</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4059826264469464</v>
+        <v>0.496143864180508</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3099175440238282</v>
+        <v>0.5554624436418862</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3215269929580136</v>
+        <v>0.3659343845094731</v>
       </c>
       <c r="J116" t="n">
-        <v>0.3118501603603363</v>
+        <v>0.380621463060379</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2481434047222137</v>
+        <v>0.4684216976165771</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2624461650848389</v>
+        <v>0.2808132171630859</v>
       </c>
     </row>
     <row r="117">
@@ -4876,31 +4876,31 @@
         <v>75</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9799917622389333</v>
+        <v>0.9837180343906764</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9867412757056844</v>
+        <v>0.9797568422313087</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9059175638181549</v>
+        <v>0.9115589432505344</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3447941181675789</v>
+        <v>0.3111320596172182</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2887192956898844</v>
+        <v>0.3557310917896701</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3396381435841528</v>
+        <v>0.3338019447229155</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2589300572872162</v>
+        <v>0.2312759160995483</v>
       </c>
       <c r="K117" t="n">
-        <v>0.2314822375774384</v>
+        <v>0.3024773895740509</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2642171680927277</v>
+        <v>0.2462225258350372</v>
       </c>
     </row>
     <row r="118">
@@ -4914,31 +4914,31 @@
         <v>80</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9662884440975564</v>
+        <v>0.9566562061274791</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9721891990896687</v>
+        <v>0.938308886290125</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8209133245756066</v>
+        <v>0.775813579029964</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4501594645032211</v>
+        <v>0.5061630456916552</v>
       </c>
       <c r="H118" t="n">
-        <v>0.418736901718938</v>
+        <v>0.61947466386213</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4863723979851918</v>
+        <v>0.5126583122344484</v>
       </c>
       <c r="J118" t="n">
-        <v>0.3554483354091644</v>
+        <v>0.3830664455890656</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3301557600498199</v>
+        <v>0.4663809537887573</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3791166841983795</v>
+        <v>0.3970650732517242</v>
       </c>
     </row>
     <row r="119">
@@ -4952,31 +4952,31 @@
         <v>20</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9701373020212991</v>
+        <v>0.9532119679128921</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9571220218931623</v>
+        <v>0.946220489363875</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9011033875621446</v>
+        <v>0.8322896324275018</v>
       </c>
       <c r="G119" t="n">
-        <v>0.420139291945265</v>
+        <v>0.5276981999262299</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5153701325731902</v>
+        <v>0.5752352326664041</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3373843021234061</v>
+        <v>0.4479142529030753</v>
       </c>
       <c r="J119" t="n">
-        <v>0.3135631680488586</v>
+        <v>0.4185670912265778</v>
       </c>
       <c r="K119" t="n">
-        <v>0.4555366933345795</v>
+        <v>0.465852677822113</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2529827654361725</v>
+        <v>0.3539587259292603</v>
       </c>
     </row>
     <row r="120">
@@ -4990,31 +4990,31 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9769906843607105</v>
+        <v>0.9457392515021926</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9910352586912319</v>
+        <v>0.9628108918572073</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8990816360374352</v>
+        <v>0.7638944114993793</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3701950635483531</v>
+        <v>0.5684046252088664</v>
       </c>
       <c r="H120" t="n">
-        <v>0.234943772637915</v>
+        <v>0.4789092644103426</v>
       </c>
       <c r="I120" t="n">
-        <v>0.348851335784932</v>
+        <v>0.5347470020425944</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2988753616809845</v>
+        <v>0.4405051469802856</v>
       </c>
       <c r="K120" t="n">
-        <v>0.1913535445928574</v>
+        <v>0.362020343542099</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2823546826839447</v>
+        <v>0.4472821652889252</v>
       </c>
     </row>
     <row r="121">
@@ -5028,31 +5028,31 @@
         <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9757162972801473</v>
+        <v>0.9821101039136241</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9814909074350425</v>
+        <v>0.9815850903376689</v>
       </c>
       <c r="F121" t="n">
-        <v>0.873272746915906</v>
+        <v>0.8963642505785688</v>
       </c>
       <c r="G121" t="n">
-        <v>0.381122713259164</v>
+        <v>0.3251332747936457</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3406777835335841</v>
+        <v>0.3379226735522283</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3930144091978503</v>
+        <v>0.3722370605077243</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2840879261493683</v>
+        <v>0.240507110953331</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2867142558097839</v>
+        <v>0.2646050751209259</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2830426394939423</v>
+        <v>0.2852173745632172</v>
       </c>
     </row>
     <row r="122">
@@ -5066,31 +5066,31 @@
         <v>35</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9751853876420482</v>
+        <v>0.9751834388600649</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9792805026886087</v>
+        <v>0.9869305157918953</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8692474710231616</v>
+        <v>0.8748720547785418</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3849463256354371</v>
+        <v>0.3841173549056413</v>
       </c>
       <c r="H122" t="n">
-        <v>0.359451306576224</v>
+        <v>0.2842886935254764</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3902325184332107</v>
+        <v>0.39586269328336</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3020429611206055</v>
+        <v>0.3129937648773193</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2893534600734711</v>
+        <v>0.2282329201698303</v>
       </c>
       <c r="L122" t="n">
-        <v>0.28607377409935</v>
+        <v>0.3075025677680969</v>
       </c>
     </row>
     <row r="123">
@@ -5104,31 +5104,31 @@
         <v>40</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9681620507492409</v>
+        <v>0.9417859902325589</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9557715562763901</v>
+        <v>0.9336700488234473</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8633586606912234</v>
+        <v>0.8585513115517545</v>
       </c>
       <c r="G123" t="n">
-        <v>0.434562185832985</v>
+        <v>0.5896367853105714</v>
       </c>
       <c r="H123" t="n">
-        <v>0.526808771109138</v>
+        <v>0.6437224197034942</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4311903767211251</v>
+        <v>0.4151332793163967</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3390255570411682</v>
+        <v>0.4483254849910736</v>
       </c>
       <c r="K123" t="n">
-        <v>0.4436113834381104</v>
+        <v>0.5508909225463867</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3055505752563477</v>
+        <v>0.3432436287403107</v>
       </c>
     </row>
     <row r="124">
@@ -5142,31 +5142,31 @@
         <v>45</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9402666663513217</v>
+        <v>0.9790066706945353</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9632843172189576</v>
+        <v>0.9710056968458145</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6412873288017469</v>
+        <v>0.8888501838945555</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5978230511641037</v>
+        <v>0.3521572909561927</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4784659690783593</v>
+        <v>0.4267535002117385</v>
       </c>
       <c r="I124" t="n">
-        <v>0.6672035206427984</v>
+        <v>0.3584240272803583</v>
       </c>
       <c r="J124" t="n">
-        <v>0.5220661759376526</v>
+        <v>0.2694699168205261</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3997507691383362</v>
+        <v>0.3847950994968414</v>
       </c>
       <c r="L124" t="n">
-        <v>0.5973150134086609</v>
+        <v>0.2852067649364471</v>
       </c>
     </row>
     <row r="125">
@@ -5180,31 +5180,31 @@
         <v>50</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9490929142108413</v>
+        <v>0.9652570591519654</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9510443242480566</v>
+        <v>0.9610485166923997</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7666862152928072</v>
+        <v>0.8313991736084759</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5508574845602545</v>
+        <v>0.454706375805199</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5514809513053317</v>
+        <v>0.4903018342676072</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5582995940685077</v>
+        <v>0.4738435728569281</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4554025530815125</v>
+        <v>0.3488636314868927</v>
       </c>
       <c r="K125" t="n">
-        <v>0.447714239358902</v>
+        <v>0.3856525719165802</v>
       </c>
       <c r="L125" t="n">
-        <v>0.4492045044898987</v>
+        <v>0.3955409526824951</v>
       </c>
     </row>
     <row r="126">
@@ -5218,31 +5218,31 @@
         <v>55</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9663155644196282</v>
+        <v>0.9640349586740879</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9697154564006836</v>
+        <v>0.9867536376607277</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8558859291690767</v>
+        <v>0.6181009422396387</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4483913763430585</v>
+        <v>0.4679173226350493</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4312365267210729</v>
+        <v>0.2853633703233996</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4145377688393194</v>
+        <v>0.7052732921379402</v>
       </c>
       <c r="J126" t="n">
-        <v>0.346441775560379</v>
+        <v>0.3833571076393127</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3361911773681641</v>
+        <v>0.2196246683597565</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3510497808456421</v>
+        <v>0.6042979955673218</v>
       </c>
     </row>
     <row r="127">
@@ -5256,31 +5256,31 @@
         <v>60</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9814115430188511</v>
+        <v>0.9561412262129384</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9778868441632482</v>
+        <v>0.9810187877012594</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8832128974361881</v>
+        <v>0.751273016972529</v>
       </c>
       <c r="G127" t="n">
-        <v>0.333177841944584</v>
+        <v>0.5136339296895529</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3722190259366057</v>
+        <v>0.3409639181676293</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3827749934604264</v>
+        <v>0.5475608339871073</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2469870299100876</v>
+        <v>0.4500477910041809</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3035180568695068</v>
+        <v>0.2930611968040466</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2758955359458923</v>
+        <v>0.4936769008636475</v>
       </c>
     </row>
     <row r="128">
@@ -5294,31 +5294,31 @@
         <v>65</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9703358651632557</v>
+        <v>0.9701166737901143</v>
       </c>
       <c r="E128" t="n">
-        <v>0.983916687267417</v>
+        <v>0.976546085774027</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7319977060932046</v>
+        <v>0.8291829250542931</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4206200761209267</v>
+        <v>0.4224285273789196</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3150717768560491</v>
+        <v>0.3830173683822445</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5684086362065209</v>
+        <v>0.4606552714748974</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3418423235416412</v>
+        <v>0.3367555737495422</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2619254887104034</v>
+        <v>0.3059208393096924</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4940172731876373</v>
+        <v>0.4054388403892517</v>
       </c>
     </row>
     <row r="129">
@@ -5332,31 +5332,31 @@
         <v>70</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9781728056192333</v>
+        <v>0.9809719021418979</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9740904116015692</v>
+        <v>0.9760096831545222</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8862494222394082</v>
+        <v>0.9188609765408087</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3614717971133786</v>
+        <v>0.335792854129872</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4005510706539509</v>
+        <v>0.3861497681386988</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3693052863157152</v>
+        <v>0.3132018195505928</v>
       </c>
       <c r="J129" t="n">
-        <v>0.279344379901886</v>
+        <v>0.2387826591730118</v>
       </c>
       <c r="K129" t="n">
-        <v>0.3402493596076965</v>
+        <v>0.3081517219543457</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2926725149154663</v>
+        <v>0.2433815449476242</v>
       </c>
     </row>
     <row r="130">
@@ -5370,31 +5370,31 @@
         <v>75</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9760564294637306</v>
+        <v>0.9708725154144294</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9858200066241477</v>
+        <v>0.9644349956886401</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8702316636715054</v>
+        <v>0.895612727887235</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3767673647447298</v>
+        <v>0.4159438738488621</v>
       </c>
       <c r="H130" t="n">
-        <v>0.297775871790344</v>
+        <v>0.4701737240313827</v>
       </c>
       <c r="I130" t="n">
-        <v>0.415389830520556</v>
+        <v>0.3495825325661552</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2882979810237885</v>
+        <v>0.3217711448669434</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2229135781526566</v>
+        <v>0.383580356836319</v>
       </c>
       <c r="L130" t="n">
-        <v>0.357359766960144</v>
+        <v>0.2663882672786713</v>
       </c>
     </row>
     <row r="131">
@@ -5408,31 +5408,31 @@
         <v>80</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9548638770855996</v>
+        <v>0.9845467051234918</v>
       </c>
       <c r="E131" t="n">
-        <v>0.965126241998291</v>
+        <v>0.9893642633570806</v>
       </c>
       <c r="F131" t="n">
-        <v>0.776001832685094</v>
+        <v>0.9090526375074234</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5193633475069523</v>
+        <v>0.3030092529640319</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4654956381907913</v>
+        <v>0.2578082084298572</v>
       </c>
       <c r="I131" t="n">
-        <v>0.5282867195322384</v>
+        <v>0.3317635410631272</v>
       </c>
       <c r="J131" t="n">
-        <v>0.397425651550293</v>
+        <v>0.2331262826919556</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3354216814041138</v>
+        <v>0.2041455507278442</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4558746814727783</v>
+        <v>0.241337388753891</v>
       </c>
     </row>
     <row r="132">
@@ -5446,31 +5446,31 @@
         <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9707246029938426</v>
+        <v>0.9497219915068458</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9828899806751973</v>
+        <v>0.9738507646908092</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8731171830681105</v>
+        <v>0.6320351342290902</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4167975478448415</v>
+        <v>0.5507337130330113</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3251323810892323</v>
+        <v>0.4022924334938384</v>
       </c>
       <c r="I132" t="n">
-        <v>0.38542088514889</v>
+        <v>0.674814889391836</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3266348242759705</v>
+        <v>0.4731963276863098</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2455001771450043</v>
+        <v>0.3371647298336029</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3161197602748871</v>
+        <v>0.6169825196266174</v>
       </c>
     </row>
     <row r="133">
@@ -5484,31 +5484,31 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9673611963641858</v>
+        <v>0.9588585722917056</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9597133376873794</v>
+        <v>0.9427763390791076</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8765792723368491</v>
+        <v>0.8598999802308667</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4404814493081415</v>
+        <v>0.494791755341639</v>
       </c>
       <c r="H133" t="n">
-        <v>0.5022736650287123</v>
+        <v>0.6000535792031449</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3864818965106776</v>
+        <v>0.4279676524131157</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3362328708171844</v>
+        <v>0.3838474452495575</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3929723799228668</v>
+        <v>0.5254752039909363</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3000153005123138</v>
+        <v>0.3206707537174225</v>
       </c>
     </row>
     <row r="134">
@@ -5522,31 +5522,31 @@
         <v>30</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9836886477523764</v>
+        <v>0.9591196919277272</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9891349623610042</v>
+        <v>0.9369873407289618</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8825621732811055</v>
+        <v>0.9014408687016824</v>
       </c>
       <c r="G134" t="n">
-        <v>0.3124252110632487</v>
+        <v>0.4922811630986072</v>
       </c>
       <c r="H134" t="n">
-        <v>0.2606584936113323</v>
+        <v>0.6277015473304627</v>
       </c>
       <c r="I134" t="n">
-        <v>0.3776751900888395</v>
+        <v>0.344247284899984</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2435062378644943</v>
+        <v>0.3916220664978027</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2011426240205765</v>
+        <v>0.5468338131904602</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3111652433872223</v>
+        <v>0.2594281435012817</v>
       </c>
     </row>
     <row r="135">
@@ -5560,31 +5560,31 @@
         <v>35</v>
       </c>
       <c r="D135" t="n">
-        <v>0.962475087923081</v>
+        <v>0.943017999552949</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9593294054883581</v>
+        <v>0.9373776598219128</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8961816721575726</v>
+        <v>0.8564581133268245</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4713569468913271</v>
+        <v>0.5805978469741039</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5045388265532903</v>
+        <v>0.6218457497853529</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3687809599794531</v>
+        <v>0.4164752838567958</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3538937270641327</v>
+        <v>0.4378436803817749</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4145870208740234</v>
+        <v>0.4719991981983185</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2798689603805542</v>
+        <v>0.3333934843540192</v>
       </c>
     </row>
     <row r="136">
@@ -5598,31 +5598,31 @@
         <v>40</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9625986808811273</v>
+        <v>0.9277103239307261</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9392922371396834</v>
+        <v>0.9591979945596786</v>
       </c>
       <c r="F136" t="n">
-        <v>0.875028450440423</v>
+        <v>0.5396663723497478</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4709267935646468</v>
+        <v>0.6591258839442697</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6145559294027475</v>
+        <v>0.5021447138906057</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3873141550666149</v>
+        <v>0.742223919426652</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3693785071372986</v>
+        <v>0.5476740002632141</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5550805330276489</v>
+        <v>0.3880185782909393</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2951226532459259</v>
+        <v>0.6826685667037964</v>
       </c>
     </row>
     <row r="137">
@@ -5636,31 +5636,31 @@
         <v>45</v>
       </c>
       <c r="D137" t="n">
-        <v>0.905729117396859</v>
+        <v>0.9665585706460297</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8430620508504389</v>
+        <v>0.9503385376074656</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8216196714254539</v>
+        <v>0.8804634271173132</v>
       </c>
       <c r="G137" t="n">
-        <v>0.748077073247139</v>
+        <v>0.4456809176262646</v>
       </c>
       <c r="H137" t="n">
-        <v>0.9917452870519734</v>
+        <v>0.5535664041792159</v>
       </c>
       <c r="I137" t="n">
-        <v>0.4635248466897584</v>
+        <v>0.3990429410868623</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5283690094947815</v>
+        <v>0.3265952169895172</v>
       </c>
       <c r="K137" t="n">
-        <v>0.7235333919525146</v>
+        <v>0.4061416387557983</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3768569529056549</v>
+        <v>0.3156778216362</v>
       </c>
     </row>
     <row r="138">
@@ -5674,31 +5674,31 @@
         <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>0.97046792371437</v>
+        <v>0.9795301992007114</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9707992044382117</v>
+        <v>0.9768340555645691</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7984397867171806</v>
+        <v>0.9145206434726088</v>
       </c>
       <c r="G138" t="n">
-        <v>0.4212555753072926</v>
+        <v>0.3494402833485579</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4263766264558725</v>
+        <v>0.3805405676265579</v>
       </c>
       <c r="I138" t="n">
-        <v>0.5114958765529316</v>
+        <v>0.3220501034551536</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3299578428268433</v>
+        <v>0.2697997391223907</v>
       </c>
       <c r="K138" t="n">
-        <v>0.327588677406311</v>
+        <v>0.322186142206192</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4208030700683594</v>
+        <v>0.2485832124948502</v>
       </c>
     </row>
     <row r="139">
@@ -5712,31 +5712,31 @@
         <v>55</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9670423438904381</v>
+        <v>0.9838353153084777</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9849576401146181</v>
+        <v>0.9892574181345036</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7517628220539689</v>
+        <v>0.8823178932184976</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4456072049647375</v>
+        <v>0.3105819610352663</v>
       </c>
       <c r="H139" t="n">
-        <v>0.3028550307499525</v>
+        <v>0.2602996499689763</v>
       </c>
       <c r="I139" t="n">
-        <v>0.568979141691068</v>
+        <v>0.3765277339984214</v>
       </c>
       <c r="J139" t="n">
-        <v>0.345967710018158</v>
+        <v>0.2299253195524216</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2511440813541412</v>
+        <v>0.2071995437145233</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4246977865695953</v>
+        <v>0.2990867793560028</v>
       </c>
     </row>
     <row r="140">
@@ -5750,31 +5750,31 @@
         <v>60</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9551066426637516</v>
+        <v>0.9550093078285058</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9388404299706957</v>
+        <v>0.9715915853561545</v>
       </c>
       <c r="F140" t="n">
-        <v>0.918614217429</v>
+        <v>0.7346200806564699</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5150000223604216</v>
+        <v>0.5187505722042742</v>
       </c>
       <c r="H140" t="n">
-        <v>0.619234649546486</v>
+        <v>0.4193223266098324</v>
       </c>
       <c r="I140" t="n">
-        <v>0.314338236606363</v>
+        <v>0.5821780333309851</v>
       </c>
       <c r="J140" t="n">
-        <v>0.3864513337612152</v>
+        <v>0.3978539407253265</v>
       </c>
       <c r="K140" t="n">
-        <v>0.4970402717590332</v>
+        <v>0.3198646903038025</v>
       </c>
       <c r="L140" t="n">
-        <v>0.231219083070755</v>
+        <v>0.4841776192188263</v>
       </c>
     </row>
     <row r="141">
@@ -5788,31 +5788,31 @@
         <v>65</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9782170412012688</v>
+        <v>0.9756435202892667</v>
       </c>
       <c r="E141" t="n">
-        <v>0.974848031527658</v>
+        <v>0.9881618888844496</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8971880043415814</v>
+        <v>0.8810673625310351</v>
       </c>
       <c r="G141" t="n">
-        <v>0.3595147690358911</v>
+        <v>0.380380534886141</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3969298805378853</v>
+        <v>0.2714941585616645</v>
       </c>
       <c r="I141" t="n">
-        <v>0.3498632585402736</v>
+        <v>0.3850473834269988</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2743522822856903</v>
+        <v>0.3085073530673981</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3266332745552063</v>
+        <v>0.2203289121389389</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2864810824394226</v>
+        <v>0.2874945402145386</v>
       </c>
     </row>
     <row r="142">
@@ -5826,31 +5826,31 @@
         <v>70</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9803856004161239</v>
+        <v>0.986015377693646</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9811677477278623</v>
+        <v>0.9898792264525955</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9045121432070071</v>
+        <v>0.9151334549675111</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3404943552494595</v>
+        <v>0.2882781987429364</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3406841804120126</v>
+        <v>0.2509112291610508</v>
       </c>
       <c r="I142" t="n">
-        <v>0.3394282311024073</v>
+        <v>0.3261704016555129</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2385160773992538</v>
+        <v>0.2104216068983078</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2784899473190308</v>
+        <v>0.2114619463682175</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2766469717025757</v>
+        <v>0.2493651360273361</v>
       </c>
     </row>
     <row r="143">
@@ -5864,31 +5864,31 @@
         <v>75</v>
       </c>
       <c r="D143" t="n">
-        <v>0.941127667556807</v>
+        <v>0.9457514189581646</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9736270728410247</v>
+        <v>0.9572660223455585</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5358964859056851</v>
+        <v>0.8079361548562456</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5979855197601393</v>
+        <v>0.5679121322432157</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4039620012363051</v>
+        <v>0.511371990097091</v>
       </c>
       <c r="I143" t="n">
-        <v>0.7581833787220716</v>
+        <v>0.4807386493126461</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5206204056739807</v>
+        <v>0.4488483369350433</v>
       </c>
       <c r="K143" t="n">
-        <v>0.3368489444255829</v>
+        <v>0.4103963077068329</v>
       </c>
       <c r="L143" t="n">
-        <v>0.6995591521263123</v>
+        <v>0.4142281413078308</v>
       </c>
     </row>
     <row r="144">
@@ -5902,31 +5902,31 @@
         <v>80</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9443565098226134</v>
+        <v>0.9560308552233309</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9278291914595661</v>
+        <v>0.9391896616752106</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7862511777096495</v>
+        <v>0.8873242286402625</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5758767875592306</v>
+        <v>0.5102989651437949</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6693405654342054</v>
+        <v>0.6129444193526778</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4985200317360213</v>
+        <v>0.3689071684021689</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4740614593029022</v>
+        <v>0.4052383005619049</v>
       </c>
       <c r="K144" t="n">
-        <v>0.62513667345047</v>
+        <v>0.543474555015564</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3855733573436737</v>
+        <v>0.2724435031414032</v>
       </c>
     </row>
     <row r="145">
@@ -5940,31 +5940,31 @@
         <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9147682194732909</v>
+        <v>0.9734373856051294</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9333923616175781</v>
+        <v>0.9806865894056522</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7101114650778133</v>
+        <v>0.8887189279242658</v>
       </c>
       <c r="G145" t="n">
-        <v>0.7112707258399288</v>
+        <v>0.3964427306004425</v>
       </c>
       <c r="H145" t="n">
-        <v>0.6439356277010591</v>
+        <v>0.3446716286436878</v>
       </c>
       <c r="I145" t="n">
-        <v>0.5890794564394458</v>
+        <v>0.3691296045989522</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5965965986251831</v>
+        <v>0.3112195730209351</v>
       </c>
       <c r="K145" t="n">
-        <v>0.5450666546821594</v>
+        <v>0.2793062031269073</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5056647062301636</v>
+        <v>0.2885473966598511</v>
       </c>
     </row>
     <row r="146">
@@ -5978,31 +5978,31 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9677546595620304</v>
+        <v>0.9058665829558926</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9566097873363461</v>
+        <v>0.9254318946438088</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8881457462020045</v>
+        <v>0.7427173654344279</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4370134236393071</v>
+        <v>0.7507726345302288</v>
       </c>
       <c r="H146" t="n">
-        <v>0.5168767531433264</v>
+        <v>0.6812915290633453</v>
       </c>
       <c r="I146" t="n">
-        <v>0.3673089212175429</v>
+        <v>0.5479115879949985</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3354833126068115</v>
+        <v>0.5972095131874084</v>
       </c>
       <c r="K146" t="n">
-        <v>0.4610917270183563</v>
+        <v>0.5401929616928101</v>
       </c>
       <c r="L146" t="n">
-        <v>0.283907413482666</v>
+        <v>0.4639134407043457</v>
       </c>
     </row>
     <row r="147">
@@ -6016,31 +6016,31 @@
         <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9751556719535652</v>
+        <v>0.9585166760022039</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9879530195662969</v>
+        <v>0.9694082148256913</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9089189514606778</v>
+        <v>0.8522309003929373</v>
       </c>
       <c r="G147" t="n">
-        <v>0.3837988466369728</v>
+        <v>0.496519761884078</v>
       </c>
       <c r="H147" t="n">
-        <v>0.2718850479242346</v>
+        <v>0.4339586217674485</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3363045971092</v>
+        <v>0.4173635754148429</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3042418360710144</v>
+        <v>0.4046075344085693</v>
       </c>
       <c r="K147" t="n">
-        <v>0.2266163676977158</v>
+        <v>0.3602970540523529</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2658727467060089</v>
+        <v>0.3681962192058563</v>
       </c>
     </row>
     <row r="148">
@@ -6054,31 +6054,31 @@
         <v>35</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9656128207730621</v>
+        <v>0.9823486798621908</v>
       </c>
       <c r="E148" t="n">
-        <v>0.961548839415306</v>
+        <v>0.983636343273232</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8265160499025836</v>
+        <v>0.8900316987182676</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4534420351291959</v>
+        <v>0.3249139570999039</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4887631898939281</v>
+        <v>0.321942346434568</v>
       </c>
       <c r="I148" t="n">
-        <v>0.467767830896724</v>
+        <v>0.3611622816392319</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3629117608070374</v>
+        <v>0.2392994165420532</v>
       </c>
       <c r="K148" t="n">
-        <v>0.4194840490818024</v>
+        <v>0.2321460396051407</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3518272638320923</v>
+        <v>0.2730953395366669</v>
       </c>
     </row>
     <row r="149">
@@ -6092,31 +6092,31 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9673180475803604</v>
+        <v>0.9473514685926281</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9520269997700317</v>
+        <v>0.9458716676167971</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8418298165862922</v>
+        <v>0.9099796804777771</v>
       </c>
       <c r="G149" t="n">
-        <v>0.44021711273333</v>
+        <v>0.5574276095805752</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5491727242644611</v>
+        <v>0.5797761587119769</v>
       </c>
       <c r="I149" t="n">
-        <v>0.4464864815890059</v>
+        <v>0.3244152737387611</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3436441421508789</v>
+        <v>0.4168562889099121</v>
       </c>
       <c r="K149" t="n">
-        <v>0.4555302858352661</v>
+        <v>0.4657810628414154</v>
       </c>
       <c r="L149" t="n">
-        <v>0.3577068448066711</v>
+        <v>0.2481618523597717</v>
       </c>
     </row>
     <row r="150">
@@ -6130,31 +6130,31 @@
         <v>45</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9658914913981507</v>
+        <v>0.9843700380166305</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9720674113214123</v>
+        <v>0.9854985055329193</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8394914702565208</v>
+        <v>0.9215517140824712</v>
       </c>
       <c r="G150" t="n">
-        <v>0.4500028815442121</v>
+        <v>0.3044544086424344</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4176282832939474</v>
+        <v>0.301375693437909</v>
       </c>
       <c r="I150" t="n">
-        <v>0.4333044582002014</v>
+        <v>0.303952516598613</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3297067582607269</v>
+        <v>0.2237174361944199</v>
       </c>
       <c r="K150" t="n">
-        <v>0.3398820459842682</v>
+        <v>0.2384716421365738</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3236913979053497</v>
+        <v>0.2297458052635193</v>
       </c>
     </row>
     <row r="151">
@@ -6168,31 +6168,31 @@
         <v>50</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9789273263803255</v>
+        <v>0.9883523149070056</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9768748779166446</v>
+        <v>0.9914002528516561</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8904877286130934</v>
+        <v>0.9210593716467322</v>
       </c>
       <c r="G151" t="n">
-        <v>0.3530730749455242</v>
+        <v>0.2631219002457295</v>
       </c>
       <c r="H151" t="n">
-        <v>0.3785909737151808</v>
+        <v>0.2335316664825895</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3625404434005173</v>
+        <v>0.3159240533399032</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2706627547740936</v>
+        <v>0.1834326684474945</v>
       </c>
       <c r="K151" t="n">
-        <v>0.306895911693573</v>
+        <v>0.1834667921066284</v>
       </c>
       <c r="L151" t="n">
-        <v>0.295102059841156</v>
+        <v>0.2289117127656937</v>
       </c>
     </row>
     <row r="152">
@@ -6206,31 +6206,31 @@
         <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9745616963921854</v>
+        <v>0.949431313519665</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9914021131800007</v>
+        <v>0.9408978526753182</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6841543845512859</v>
+        <v>0.8553989941482103</v>
       </c>
       <c r="G152" t="n">
-        <v>0.3943315321518936</v>
+        <v>0.5481929157595404</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2302214621271119</v>
+        <v>0.610171970648464</v>
       </c>
       <c r="I152" t="n">
-        <v>0.6344159380852936</v>
+        <v>0.4365150741014924</v>
       </c>
       <c r="J152" t="n">
-        <v>0.3246308863162994</v>
+        <v>0.4490435123443604</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1805687844753265</v>
+        <v>0.5185449123382568</v>
       </c>
       <c r="L152" t="n">
-        <v>0.5794062614440918</v>
+        <v>0.3292633593082428</v>
       </c>
     </row>
     <row r="153">
@@ -6244,31 +6244,31 @@
         <v>60</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9670450481477839</v>
+        <v>0.9794448685551457</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9787359386454845</v>
+        <v>0.9835046050772051</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7968617045026015</v>
+        <v>0.9233542279724333</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4443467861989061</v>
+        <v>0.3485854194121045</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3649047547336137</v>
+        <v>0.3213404466532878</v>
       </c>
       <c r="I153" t="n">
-        <v>0.5097273011983863</v>
+        <v>0.3007689758372544</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3661831915378571</v>
+        <v>0.2435634434223175</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3013664484024048</v>
+        <v>0.2356419265270233</v>
       </c>
       <c r="L153" t="n">
-        <v>0.4203009605407715</v>
+        <v>0.2351031452417374</v>
       </c>
     </row>
     <row r="154">
@@ -6282,31 +6282,31 @@
         <v>65</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9784671600629702</v>
+        <v>0.9346446418331475</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9780094265781762</v>
+        <v>0.9538245359549438</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8942588062709227</v>
+        <v>0.7469775104670178</v>
       </c>
       <c r="G154" t="n">
-        <v>0.3568513412783904</v>
+        <v>0.6249294002712706</v>
       </c>
       <c r="H154" t="n">
-        <v>0.3682695030374971</v>
+        <v>0.5331065890497307</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3595593642972176</v>
+        <v>0.570219554904527</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2693498134613037</v>
+        <v>0.5106197595596313</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2709356546401978</v>
+        <v>0.4412603676319122</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2761103510856628</v>
+        <v>0.4982317090034485</v>
       </c>
     </row>
     <row r="155">
@@ -6320,31 +6320,31 @@
         <v>70</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9761719756954782</v>
+        <v>0.9841675105321479</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9640736311788601</v>
+        <v>0.9896690714812987</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9206501105925582</v>
+        <v>0.9086200290847565</v>
       </c>
       <c r="G155" t="n">
-        <v>0.3752213262051919</v>
+        <v>0.3066934673676426</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4755738587774495</v>
+        <v>0.2542695454152417</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3196153031207126</v>
+        <v>0.3320253371665902</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2679102122783661</v>
+        <v>0.2321656048297882</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3948112726211548</v>
+        <v>0.2084124386310577</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2388919293880463</v>
+        <v>0.2688035070896149</v>
       </c>
     </row>
     <row r="156">
@@ -6358,31 +6358,31 @@
         <v>75</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9759307761245045</v>
+        <v>0.9700268387046309</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9715997299334919</v>
+        <v>0.9788870259535865</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8243948572138673</v>
+        <v>0.8999732997381111</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3783977872327642</v>
+        <v>0.4216267773861917</v>
       </c>
       <c r="H156" t="n">
-        <v>0.4210359034677851</v>
+        <v>0.3631098147908777</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4700216369771957</v>
+        <v>0.3552533639497564</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2837404906749725</v>
+        <v>0.345776230096817</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3473781049251556</v>
+        <v>0.3186271488666534</v>
       </c>
       <c r="L156" t="n">
-        <v>0.4115417897701263</v>
+        <v>0.2731783390045166</v>
       </c>
     </row>
     <row r="157">
@@ -6396,31 +6396,31 @@
         <v>80</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9678856144950915</v>
+        <v>0.9770132435810983</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9352288000507955</v>
+        <v>0.9725241167476797</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9000648316011565</v>
+        <v>0.8733047959165352</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4359605817255867</v>
+        <v>0.3696830639286836</v>
       </c>
       <c r="H157" t="n">
-        <v>0.6354680796184244</v>
+        <v>0.4131289520594039</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3515658908256616</v>
+        <v>0.3991953243840394</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3276239633560181</v>
+        <v>0.2875219285488129</v>
       </c>
       <c r="K157" t="n">
-        <v>0.5670375823974609</v>
+        <v>0.3453735411167145</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2582829594612122</v>
+        <v>0.3236678540706635</v>
       </c>
     </row>
     <row r="158">
@@ -6434,31 +6434,31 @@
         <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.979072757617289</v>
+        <v>0.9824227726040751</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9797698124223498</v>
+        <v>0.980120882963731</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8262531058548064</v>
+        <v>0.9205231089143823</v>
       </c>
       <c r="G158" t="n">
-        <v>0.3542374465376444</v>
+        <v>0.3223902259158241</v>
       </c>
       <c r="H158" t="n">
-        <v>0.3569644231045628</v>
+        <v>0.3524306703931666</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4729468973163074</v>
+        <v>0.3168592741974693</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2710151076316833</v>
+        <v>0.2423707395792007</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2866895198822021</v>
+        <v>0.3005914986133575</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3684925734996796</v>
+        <v>0.2241838574409485</v>
       </c>
     </row>
     <row r="159">
@@ -6472,31 +6472,31 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9746161171554849</v>
+        <v>0.9756222745895472</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9599039006368978</v>
+        <v>0.9694278153609798</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9123663321129409</v>
+        <v>0.8859236652214608</v>
       </c>
       <c r="G159" t="n">
-        <v>0.3870743551879511</v>
+        <v>0.3803548160541933</v>
       </c>
       <c r="H159" t="n">
-        <v>0.5021605897825472</v>
+        <v>0.4379586132127179</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3285284627249913</v>
+        <v>0.3725883102064685</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2893178164958954</v>
+        <v>0.2917438149452209</v>
       </c>
       <c r="K159" t="n">
-        <v>0.4450860321521759</v>
+        <v>0.3470636308193207</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2318417280912399</v>
+        <v>0.2885472178459167</v>
       </c>
     </row>
     <row r="160">
@@ -6510,31 +6510,31 @@
         <v>30</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9583109532064447</v>
+        <v>0.9566225385416192</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9524578750124089</v>
+        <v>0.9320897406068097</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8449277308159791</v>
+        <v>0.8988191757705857</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4982400855988685</v>
+        <v>0.5068116522172824</v>
       </c>
       <c r="H160" t="n">
-        <v>0.5450703408405936</v>
+        <v>0.6522846309347807</v>
       </c>
       <c r="I160" t="n">
-        <v>0.4381828768889869</v>
+        <v>0.342944947287883</v>
       </c>
       <c r="J160" t="n">
-        <v>0.3813174366950989</v>
+        <v>0.3613614141941071</v>
       </c>
       <c r="K160" t="n">
-        <v>0.4366901516914368</v>
+        <v>0.5090165138244629</v>
       </c>
       <c r="L160" t="n">
-        <v>0.3455763757228851</v>
+        <v>0.2540604770183563</v>
       </c>
     </row>
     <row r="161">
@@ -6548,31 +6548,31 @@
         <v>35</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9667853202733595</v>
+        <v>0.9645232945347891</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9715791700287081</v>
+        <v>0.9534099745672074</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8828206327593574</v>
+        <v>0.8864479992482645</v>
       </c>
       <c r="G161" t="n">
-        <v>0.44455899519057</v>
+        <v>0.4592806407786602</v>
       </c>
       <c r="H161" t="n">
-        <v>0.4172819859236741</v>
+        <v>0.5418832755419358</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3741272067748299</v>
+        <v>0.36475822704311</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3687950074672699</v>
+        <v>0.3569541871547699</v>
       </c>
       <c r="K161" t="n">
-        <v>0.3553544282913208</v>
+        <v>0.4360070824623108</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2960658371448517</v>
+        <v>0.2630956172943115</v>
       </c>
     </row>
     <row r="162">
@@ -6586,31 +6586,31 @@
         <v>40</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9702312087631962</v>
+        <v>0.9541541222565422</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9781064617232923</v>
+        <v>0.9640726269170455</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8756876113125698</v>
+        <v>0.6836451395556893</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4205848605543485</v>
+        <v>0.5257895561117659</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3684580309763554</v>
+        <v>0.4717423138793373</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4067046665621301</v>
+        <v>0.6320232131503613</v>
       </c>
       <c r="J162" t="n">
-        <v>0.324516624212265</v>
+        <v>0.4268721640110016</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3077849447727203</v>
+        <v>0.3948892951011658</v>
       </c>
       <c r="L162" t="n">
-        <v>0.3049795031547546</v>
+        <v>0.5355163216590881</v>
       </c>
     </row>
     <row r="163">
@@ -6624,31 +6624,31 @@
         <v>45</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9676642444090686</v>
+        <v>0.9677794540761419</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9736671671712088</v>
+        <v>0.967195134224989</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8282708756344139</v>
+        <v>0.9012868808130068</v>
       </c>
       <c r="G163" t="n">
-        <v>0.438434896209881</v>
+        <v>0.4374860693212339</v>
       </c>
       <c r="H163" t="n">
-        <v>0.403275364918207</v>
+        <v>0.4536829013184124</v>
       </c>
       <c r="I163" t="n">
-        <v>0.4804151861835749</v>
+        <v>0.3428608492171249</v>
       </c>
       <c r="J163" t="n">
-        <v>0.3481001853942871</v>
+        <v>0.3466046750545502</v>
       </c>
       <c r="K163" t="n">
-        <v>0.2982646524906158</v>
+        <v>0.3620381355285645</v>
       </c>
       <c r="L163" t="n">
-        <v>0.3964619338512421</v>
+        <v>0.2632723450660706</v>
       </c>
     </row>
     <row r="164">
@@ -6662,31 +6662,31 @@
         <v>50</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9709804473568201</v>
+        <v>0.9778145308220332</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9618794380391792</v>
+        <v>0.975064943478306</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8384945361878187</v>
+        <v>0.9251667620141367</v>
       </c>
       <c r="G164" t="n">
-        <v>0.4148552341631672</v>
+        <v>0.3625809883213393</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4852550264753622</v>
+        <v>0.3959765447078632</v>
       </c>
       <c r="I164" t="n">
-        <v>0.4465232918934054</v>
+        <v>0.2985635845611019</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3118724524974823</v>
+        <v>0.2757251262664795</v>
       </c>
       <c r="K164" t="n">
-        <v>0.3898418247699738</v>
+        <v>0.334425687789917</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3649764358997345</v>
+        <v>0.2165364325046539</v>
       </c>
     </row>
     <row r="165">
@@ -6700,31 +6700,31 @@
         <v>55</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9633867143110536</v>
+        <v>0.9725802582655907</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9711057053882804</v>
+        <v>0.9813427274758025</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8308244634604665</v>
+        <v>0.8177932957193484</v>
       </c>
       <c r="G165" t="n">
-        <v>0.4674979176959414</v>
+        <v>0.4038146086571185</v>
       </c>
       <c r="H165" t="n">
-        <v>0.4242205231631264</v>
+        <v>0.3376335202236231</v>
       </c>
       <c r="I165" t="n">
-        <v>0.4623339400003262</v>
+        <v>0.4855681153099291</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3666291534900665</v>
+        <v>0.3253917098045349</v>
       </c>
       <c r="K165" t="n">
-        <v>0.3362412452697754</v>
+        <v>0.2787054777145386</v>
       </c>
       <c r="L165" t="n">
-        <v>0.3738259375095367</v>
+        <v>0.3977084159851074</v>
       </c>
     </row>
     <row r="166">
@@ -6738,31 +6738,31 @@
         <v>60</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9827344781215996</v>
+        <v>0.9744659847865392</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9895166439931741</v>
+        <v>0.9735331586938343</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8877278934782431</v>
+        <v>0.8308488750884852</v>
       </c>
       <c r="G166" t="n">
-        <v>0.3196620034746027</v>
+        <v>0.3918492016977772</v>
       </c>
       <c r="H166" t="n">
-        <v>0.253928961104925</v>
+        <v>0.4059743863292176</v>
       </c>
       <c r="I166" t="n">
-        <v>0.3684317629936134</v>
+        <v>0.4454829742986555</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2357229441404343</v>
+        <v>0.3021132349967957</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1887620687484741</v>
+        <v>0.3475151360034943</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2861985862255096</v>
+        <v>0.3508880436420441</v>
       </c>
     </row>
     <row r="167">
@@ -6776,31 +6776,31 @@
         <v>65</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9050692085573603</v>
+        <v>0.9761156079568528</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8627142390477925</v>
+        <v>0.9805502684187989</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7432688128728917</v>
+        <v>0.8890831366933335</v>
       </c>
       <c r="G167" t="n">
-        <v>0.7518911360914138</v>
+        <v>0.3762656945538642</v>
       </c>
       <c r="H167" t="n">
-        <v>0.9237176938014934</v>
+        <v>0.3494244837819407</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5495409154923229</v>
+        <v>0.37721731385713</v>
       </c>
       <c r="J167" t="n">
-        <v>0.609744131565094</v>
+        <v>0.2922861576080322</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7974283695220947</v>
+        <v>0.2948498725891113</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4286046624183655</v>
+        <v>0.2945719957351685</v>
       </c>
     </row>
     <row r="168">
@@ -6814,31 +6814,31 @@
         <v>70</v>
       </c>
       <c r="D168" t="n">
-        <v>0.960820478356834</v>
+        <v>0.9725828896017338</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9745668344737118</v>
+        <v>0.965243024817913</v>
       </c>
       <c r="F168" t="n">
-        <v>0.836742875490601</v>
+        <v>0.8917588516551057</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4825364876326933</v>
+        <v>0.4036153310100232</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3972495264262983</v>
+        <v>0.4670568404679839</v>
       </c>
       <c r="I168" t="n">
-        <v>0.4466674002361442</v>
+        <v>0.3704927496696184</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3761180937290192</v>
+        <v>0.3183388411998749</v>
       </c>
       <c r="K168" t="n">
-        <v>0.334124892950058</v>
+        <v>0.3887646794319153</v>
       </c>
       <c r="L168" t="n">
-        <v>0.3836835026741028</v>
+        <v>0.2712630331516266</v>
       </c>
     </row>
     <row r="169">
@@ -6852,31 +6852,31 @@
         <v>75</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9055401021961843</v>
+        <v>0.9802603452188411</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9412406324338189</v>
+        <v>0.9829865840412172</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4726632473418326</v>
+        <v>0.9146096213333117</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7533003195418239</v>
+        <v>0.3421338082783517</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6022790381753622</v>
+        <v>0.3274107265918243</v>
       </c>
       <c r="I169" t="n">
-        <v>0.8022898907585237</v>
+        <v>0.3302428945972532</v>
       </c>
       <c r="J169" t="n">
-        <v>0.667887270450592</v>
+        <v>0.2667915523052216</v>
       </c>
       <c r="K169" t="n">
-        <v>0.4977450668811798</v>
+        <v>0.275243878364563</v>
       </c>
       <c r="L169" t="n">
-        <v>0.7472517490386963</v>
+        <v>0.258292019367218</v>
       </c>
     </row>
     <row r="170">
@@ -6890,31 +6890,31 @@
         <v>80</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9674242622577013</v>
+        <v>0.973466399884134</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9544592562843415</v>
+        <v>0.986478370386096</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8613711091062295</v>
+        <v>0.8507741198117903</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4402320739902588</v>
+        <v>0.3979872796515517</v>
       </c>
       <c r="H170" t="n">
-        <v>0.5335806882720132</v>
+        <v>0.2896140095473961</v>
       </c>
       <c r="I170" t="n">
-        <v>0.425461325186654</v>
+        <v>0.4509568961420567</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3331937789916992</v>
+        <v>0.313599169254303</v>
       </c>
       <c r="K170" t="n">
-        <v>0.4094167351722717</v>
+        <v>0.2365673184394836</v>
       </c>
       <c r="L170" t="n">
-        <v>0.3195681571960449</v>
+        <v>0.3482690453529358</v>
       </c>
     </row>
   </sheetData>
